--- a/public/templates/opl.xlsx
+++ b/public/templates/opl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Soft\openserv\OpenServer\domains\telegram.gaz\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B00F2B9-0460-4F23-9E7E-2BF3A945E366}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FE8EAA-468D-4747-B240-3EB4A79A5289}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,18 +28,12 @@
     <t>Invoice:</t>
   </si>
   <si>
-    <t>Date :</t>
-  </si>
-  <si>
     <t>Reference :</t>
   </si>
   <si>
     <t>Terms:</t>
   </si>
   <si>
-    <t>EXW USA</t>
-  </si>
-  <si>
     <t>Due date:</t>
   </si>
   <si>
@@ -89,13 +83,6 @@
   </si>
   <si>
     <t>Dennis Thomas</t>
-  </si>
-  <si>
-    <t>B2436
-B1850</t>
-  </si>
-  <si>
-    <t>важность = OSI</t>
   </si>
   <si>
     <t xml:space="preserve">W&amp;D: 10x10x10 cm / 55kg (габариты, вес и мера) </t>
@@ -141,9 +128,6 @@
 </t>
   </si>
   <si>
-    <t>[description]</t>
-  </si>
-  <si>
     <t>[cd]</t>
   </si>
   <si>
@@ -157,6 +141,25 @@
   </si>
   <si>
     <t>{shipto}</t>
+  </si>
+  <si>
+    <t>{terms}</t>
+  </si>
+  <si>
+    <t>CRI</t>
+  </si>
+  <si>
+    <t>[description]
+[mfg]
+[coo]
+[schb] ; [eccn];
+NLR</t>
+  </si>
+  <si>
+    <t>Order Date :</t>
+  </si>
+  <si>
+    <t>[sb]</t>
   </si>
 </sst>
 </file>
@@ -757,7 +760,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -810,197 +813,206 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1021,20 +1033,25 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="885825" cy="866775"/>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285874</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9647</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Рисунок 3">
+        <xdr:cNvPr id="5" name="Рисунок 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8FBA3C4-8CDF-4559-A13A-4BB65B8C8905}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B5824A3-58FD-4E96-A47C-E481510FD865}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1043,7 +1060,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1057,7 +1074,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="600075" y="5305425"/>
-          <a:ext cx="885825" cy="866775"/>
+          <a:ext cx="885949" cy="876422"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1065,7 +1082,7 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1397,7 +1414,7 @@
   <dimension ref="A1:AH30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U14" sqref="U14:AG18"/>
+      <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1412,7 +1429,7 @@
     <col min="20" max="20" width="1" style="1" customWidth="1"/>
     <col min="21" max="21" width="4.6640625" style="1" customWidth="1"/>
     <col min="22" max="22" width="2.33203125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="6.6640625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="8.1640625" style="1" customWidth="1"/>
     <col min="24" max="24" width="4.1640625" style="1" customWidth="1"/>
     <col min="25" max="25" width="7.1640625" style="1" customWidth="1"/>
     <col min="26" max="26" width="4.1640625" style="1" customWidth="1"/>
@@ -1464,16 +1481,16 @@
     </row>
     <row r="3" spans="1:34" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="5"/>
-      <c r="U3" s="81" t="s">
+      <c r="U3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="V3" s="81"/>
-      <c r="W3" s="81"/>
-      <c r="X3" s="81"/>
-      <c r="Y3" s="81"/>
-      <c r="Z3" s="81"/>
-      <c r="AA3" s="81"/>
-      <c r="AB3" s="81"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
+      <c r="X3" s="24"/>
+      <c r="Y3" s="24"/>
+      <c r="Z3" s="24"/>
+      <c r="AA3" s="24"/>
+      <c r="AB3" s="24"/>
       <c r="AG3" s="6"/>
     </row>
     <row r="4" spans="1:34" s="1" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1485,202 +1502,206 @@
       <c r="U5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="X5" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y5" s="18"/>
-      <c r="Z5" s="18"/>
-      <c r="AA5" s="18"/>
+      <c r="X5" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y5" s="61"/>
+      <c r="Z5" s="61"/>
+      <c r="AA5" s="61"/>
       <c r="AG5" s="6"/>
     </row>
     <row r="6" spans="1:34" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
-      <c r="B6" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="41"/>
-      <c r="U6" s="80" t="s">
+      <c r="A6" s="18"/>
+      <c r="B6" s="79" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="60"/>
+      <c r="Q6" s="60"/>
+      <c r="R6" s="60"/>
+      <c r="U6" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="V6" s="23"/>
+      <c r="W6" s="23"/>
+      <c r="X6" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y6" s="80"/>
+      <c r="Z6" s="80"/>
+      <c r="AA6" s="80"/>
+      <c r="AB6" s="80"/>
+      <c r="AC6" s="80"/>
+      <c r="AD6" s="80"/>
+      <c r="AE6" s="80"/>
+      <c r="AG6" s="10"/>
+    </row>
+    <row r="7" spans="1:34" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="60"/>
+      <c r="O7" s="60"/>
+      <c r="P7" s="60"/>
+      <c r="Q7" s="60"/>
+      <c r="R7" s="60"/>
+      <c r="U7" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="V6" s="80"/>
-      <c r="W6" s="80"/>
-      <c r="X6" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y6" s="20"/>
-      <c r="Z6" s="20"/>
-      <c r="AA6" s="20"/>
-      <c r="AB6" s="20"/>
-      <c r="AC6" s="20"/>
-      <c r="AD6" s="20"/>
-      <c r="AE6" s="20"/>
-      <c r="AG6" s="10"/>
-    </row>
-    <row r="7" spans="1:34" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="U7" s="80" t="s">
-        <v>3</v>
-      </c>
-      <c r="V7" s="80"/>
-      <c r="W7" s="80"/>
-      <c r="X7" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y7" s="21"/>
-      <c r="Z7" s="21"/>
-      <c r="AA7" s="21"/>
-      <c r="AB7" s="21"/>
-      <c r="AC7" s="21"/>
-      <c r="AD7" s="21"/>
-      <c r="AE7" s="21"/>
-      <c r="AF7" s="21"/>
-      <c r="AG7" s="21"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
+      <c r="X7" s="81" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y7" s="81"/>
+      <c r="Z7" s="81"/>
+      <c r="AA7" s="81"/>
+      <c r="AB7" s="81"/>
+      <c r="AC7" s="81"/>
+      <c r="AD7" s="81"/>
+      <c r="AE7" s="81"/>
+      <c r="AF7" s="81"/>
+      <c r="AG7" s="81"/>
     </row>
     <row r="8" spans="1:34" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="16"/>
       <c r="U8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="X8" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y8" s="37"/>
+      <c r="Z8" s="37"/>
+      <c r="AA8" s="37"/>
+      <c r="AB8" s="37"/>
+      <c r="AC8" s="37"/>
+      <c r="AD8" s="37"/>
+      <c r="AE8" s="37"/>
+      <c r="AF8" s="37"/>
+      <c r="AG8" s="37"/>
+    </row>
+    <row r="9" spans="1:34" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="79" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="60"/>
+      <c r="O9" s="60"/>
+      <c r="P9" s="60"/>
+      <c r="Q9" s="60"/>
+      <c r="R9" s="60"/>
+      <c r="U9" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="X8" s="22" t="s">
+      <c r="V9" s="38"/>
+      <c r="W9" s="38"/>
+      <c r="X9" s="81" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y9" s="81"/>
+      <c r="Z9" s="81"/>
+      <c r="AA9" s="81"/>
+      <c r="AB9" s="81"/>
+      <c r="AC9" s="81"/>
+      <c r="AD9" s="81"/>
+      <c r="AE9" s="81"/>
+      <c r="AF9" s="81"/>
+      <c r="AG9" s="81"/>
+    </row>
+    <row r="10" spans="1:34" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
+      <c r="B10" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="60"/>
+      <c r="P10" s="60"/>
+      <c r="Q10" s="60"/>
+      <c r="R10" s="60"/>
+      <c r="U10" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="Y8" s="22"/>
-      <c r="Z8" s="22"/>
-      <c r="AA8" s="22"/>
-      <c r="AB8" s="22"/>
-      <c r="AC8" s="22"/>
-      <c r="AD8" s="22"/>
-      <c r="AE8" s="22"/>
-      <c r="AF8" s="22"/>
-      <c r="AG8" s="22"/>
-    </row>
-    <row r="9" spans="1:34" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="41"/>
-      <c r="R9" s="41"/>
-      <c r="U9" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="X9" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y9" s="21"/>
-      <c r="Z9" s="21"/>
-      <c r="AA9" s="21"/>
-      <c r="AB9" s="21"/>
-      <c r="AC9" s="21"/>
-      <c r="AD9" s="21"/>
-      <c r="AE9" s="21"/>
-      <c r="AF9" s="21"/>
-      <c r="AG9" s="21"/>
-    </row>
-    <row r="10" spans="1:34" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="46"/>
-      <c r="B10" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="41"/>
-      <c r="R10" s="41"/>
-      <c r="U10" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="X10" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y10" s="22"/>
-      <c r="Z10" s="22"/>
-      <c r="AA10" s="22"/>
-      <c r="AB10" s="22"/>
-      <c r="AC10" s="22"/>
-      <c r="AD10" s="22"/>
-      <c r="AE10" s="22"/>
-      <c r="AF10" s="22"/>
-      <c r="AG10" s="22"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y10" s="37"/>
+      <c r="Z10" s="37"/>
+      <c r="AA10" s="37"/>
+      <c r="AB10" s="37"/>
+      <c r="AC10" s="37"/>
+      <c r="AD10" s="37"/>
+      <c r="AE10" s="37"/>
+      <c r="AF10" s="37"/>
+      <c r="AG10" s="37"/>
     </row>
     <row r="11" spans="1:34" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="46"/>
-      <c r="B11" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="41"/>
-      <c r="R11" s="41"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="60"/>
+      <c r="O11" s="60"/>
+      <c r="P11" s="60"/>
+      <c r="Q11" s="60"/>
+      <c r="R11" s="60"/>
       <c r="AG11" s="10"/>
     </row>
     <row r="12" spans="1:34" s="1" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1688,300 +1709,300 @@
       <c r="AG12" s="6"/>
     </row>
     <row r="13" spans="1:34" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="52"/>
-      <c r="S13" s="65"/>
-      <c r="T13" s="53"/>
-      <c r="U13" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="V13" s="51"/>
-      <c r="W13" s="51"/>
-      <c r="X13" s="51"/>
-      <c r="Y13" s="51"/>
-      <c r="Z13" s="51"/>
-      <c r="AA13" s="51"/>
-      <c r="AB13" s="51"/>
-      <c r="AC13" s="51"/>
-      <c r="AD13" s="51"/>
-      <c r="AE13" s="51"/>
-      <c r="AF13" s="51"/>
-      <c r="AG13" s="58"/>
+      <c r="B13" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="75"/>
+      <c r="K13" s="75"/>
+      <c r="L13" s="75"/>
+      <c r="M13" s="75"/>
+      <c r="N13" s="75"/>
+      <c r="O13" s="75"/>
+      <c r="P13" s="75"/>
+      <c r="Q13" s="75"/>
+      <c r="R13" s="78"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="V13" s="75"/>
+      <c r="W13" s="75"/>
+      <c r="X13" s="75"/>
+      <c r="Y13" s="75"/>
+      <c r="Z13" s="75"/>
+      <c r="AA13" s="75"/>
+      <c r="AB13" s="75"/>
+      <c r="AC13" s="75"/>
+      <c r="AD13" s="75"/>
+      <c r="AE13" s="75"/>
+      <c r="AF13" s="75"/>
+      <c r="AG13" s="76"/>
     </row>
     <row r="14" spans="1:34" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="46"/>
-      <c r="B14" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="42"/>
-      <c r="P14" s="42"/>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="49"/>
-      <c r="T14" s="53"/>
-      <c r="U14" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="V14" s="55"/>
-      <c r="W14" s="55"/>
-      <c r="X14" s="55"/>
-      <c r="Y14" s="55"/>
-      <c r="Z14" s="55"/>
-      <c r="AA14" s="55"/>
-      <c r="AB14" s="55"/>
-      <c r="AC14" s="55"/>
-      <c r="AD14" s="55"/>
-      <c r="AE14" s="55"/>
-      <c r="AF14" s="55"/>
-      <c r="AG14" s="63"/>
-      <c r="AH14" s="60"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="63"/>
+      <c r="N14" s="63"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="64"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="V14" s="69"/>
+      <c r="W14" s="69"/>
+      <c r="X14" s="69"/>
+      <c r="Y14" s="69"/>
+      <c r="Z14" s="69"/>
+      <c r="AA14" s="69"/>
+      <c r="AB14" s="69"/>
+      <c r="AC14" s="69"/>
+      <c r="AD14" s="69"/>
+      <c r="AE14" s="69"/>
+      <c r="AF14" s="69"/>
+      <c r="AG14" s="70"/>
+      <c r="AH14" s="20"/>
     </row>
     <row r="15" spans="1:34" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="46"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="42"/>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="49"/>
-      <c r="T15" s="53"/>
-      <c r="U15" s="54"/>
-      <c r="V15" s="55"/>
-      <c r="W15" s="55"/>
-      <c r="X15" s="55"/>
-      <c r="Y15" s="55"/>
-      <c r="Z15" s="55"/>
-      <c r="AA15" s="55"/>
-      <c r="AB15" s="55"/>
-      <c r="AC15" s="55"/>
-      <c r="AD15" s="55"/>
-      <c r="AE15" s="55"/>
-      <c r="AF15" s="55"/>
-      <c r="AG15" s="63"/>
-      <c r="AH15" s="60"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="63"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="63"/>
+      <c r="Q15" s="63"/>
+      <c r="R15" s="64"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="68"/>
+      <c r="V15" s="69"/>
+      <c r="W15" s="69"/>
+      <c r="X15" s="69"/>
+      <c r="Y15" s="69"/>
+      <c r="Z15" s="69"/>
+      <c r="AA15" s="69"/>
+      <c r="AB15" s="69"/>
+      <c r="AC15" s="69"/>
+      <c r="AD15" s="69"/>
+      <c r="AE15" s="69"/>
+      <c r="AF15" s="69"/>
+      <c r="AG15" s="70"/>
+      <c r="AH15" s="20"/>
     </row>
     <row r="16" spans="1:34" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="46"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="49"/>
-      <c r="T16" s="53"/>
-      <c r="U16" s="54"/>
-      <c r="V16" s="55"/>
-      <c r="W16" s="55"/>
-      <c r="X16" s="55"/>
-      <c r="Y16" s="55"/>
-      <c r="Z16" s="55"/>
-      <c r="AA16" s="55"/>
-      <c r="AB16" s="55"/>
-      <c r="AC16" s="55"/>
-      <c r="AD16" s="55"/>
-      <c r="AE16" s="55"/>
-      <c r="AF16" s="55"/>
-      <c r="AG16" s="63"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="63"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="63"/>
+      <c r="R16" s="64"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="68"/>
+      <c r="V16" s="69"/>
+      <c r="W16" s="69"/>
+      <c r="X16" s="69"/>
+      <c r="Y16" s="69"/>
+      <c r="Z16" s="69"/>
+      <c r="AA16" s="69"/>
+      <c r="AB16" s="69"/>
+      <c r="AC16" s="69"/>
+      <c r="AD16" s="69"/>
+      <c r="AE16" s="69"/>
+      <c r="AF16" s="69"/>
+      <c r="AG16" s="70"/>
     </row>
     <row r="17" spans="1:33" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="46"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="49"/>
-      <c r="T17" s="53"/>
-      <c r="U17" s="54"/>
-      <c r="V17" s="55"/>
-      <c r="W17" s="55"/>
-      <c r="X17" s="55"/>
-      <c r="Y17" s="55"/>
-      <c r="Z17" s="55"/>
-      <c r="AA17" s="55"/>
-      <c r="AB17" s="55"/>
-      <c r="AC17" s="55"/>
-      <c r="AD17" s="55"/>
-      <c r="AE17" s="55"/>
-      <c r="AF17" s="55"/>
-      <c r="AG17" s="63"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="63"/>
+      <c r="O17" s="63"/>
+      <c r="P17" s="63"/>
+      <c r="Q17" s="63"/>
+      <c r="R17" s="64"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="68"/>
+      <c r="V17" s="69"/>
+      <c r="W17" s="69"/>
+      <c r="X17" s="69"/>
+      <c r="Y17" s="69"/>
+      <c r="Z17" s="69"/>
+      <c r="AA17" s="69"/>
+      <c r="AB17" s="69"/>
+      <c r="AC17" s="69"/>
+      <c r="AD17" s="69"/>
+      <c r="AE17" s="69"/>
+      <c r="AF17" s="69"/>
+      <c r="AG17" s="70"/>
     </row>
     <row r="18" spans="1:33" s="1" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="46"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="50"/>
-      <c r="T18" s="53"/>
-      <c r="U18" s="56"/>
-      <c r="V18" s="19"/>
-      <c r="W18" s="19"/>
-      <c r="X18" s="19"/>
-      <c r="Y18" s="19"/>
-      <c r="Z18" s="19"/>
-      <c r="AA18" s="19"/>
-      <c r="AB18" s="19"/>
-      <c r="AC18" s="19"/>
-      <c r="AD18" s="19"/>
-      <c r="AE18" s="19"/>
-      <c r="AF18" s="19"/>
-      <c r="AG18" s="64"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="66"/>
+      <c r="O18" s="66"/>
+      <c r="P18" s="66"/>
+      <c r="Q18" s="66"/>
+      <c r="R18" s="67"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="71"/>
+      <c r="V18" s="72"/>
+      <c r="W18" s="72"/>
+      <c r="X18" s="72"/>
+      <c r="Y18" s="72"/>
+      <c r="Z18" s="72"/>
+      <c r="AA18" s="72"/>
+      <c r="AB18" s="72"/>
+      <c r="AC18" s="72"/>
+      <c r="AD18" s="72"/>
+      <c r="AE18" s="72"/>
+      <c r="AF18" s="72"/>
+      <c r="AG18" s="73"/>
     </row>
     <row r="19" spans="1:33" s="1" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="45"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="24" t="s">
+      <c r="V19" s="46"/>
+      <c r="W19" s="46"/>
+      <c r="X19" s="46"/>
+      <c r="Y19" s="46"/>
+      <c r="Z19" s="46"/>
+      <c r="AA19" s="46"/>
+      <c r="AB19" s="46"/>
+      <c r="AC19" s="46"/>
+      <c r="AD19" s="46"/>
+      <c r="AE19" s="46"/>
+      <c r="AF19" s="46"/>
+      <c r="AG19" s="46"/>
+    </row>
+    <row r="20" spans="1:33" s="1" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="48"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="48"/>
+      <c r="R20" s="48"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="V19" s="25"/>
-      <c r="W19" s="25"/>
-      <c r="X19" s="25"/>
-      <c r="Y19" s="25"/>
-      <c r="Z19" s="25"/>
-      <c r="AA19" s="25"/>
-      <c r="AB19" s="25"/>
-      <c r="AC19" s="25"/>
-      <c r="AD19" s="25"/>
-      <c r="AE19" s="25"/>
-      <c r="AF19" s="25"/>
-      <c r="AG19" s="25"/>
-    </row>
-    <row r="20" spans="1:33" s="1" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="26"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="V20" s="27"/>
-      <c r="W20" s="27"/>
-      <c r="X20" s="27"/>
-      <c r="Y20" s="27"/>
-      <c r="Z20" s="27"/>
-      <c r="AA20" s="27"/>
-      <c r="AB20" s="27"/>
-      <c r="AC20" s="27"/>
-      <c r="AD20" s="27"/>
-      <c r="AE20" s="27"/>
-      <c r="AF20" s="27"/>
-      <c r="AG20" s="27"/>
+      <c r="V20" s="32"/>
+      <c r="W20" s="32"/>
+      <c r="X20" s="32"/>
+      <c r="Y20" s="32"/>
+      <c r="Z20" s="32"/>
+      <c r="AA20" s="32"/>
+      <c r="AB20" s="32"/>
+      <c r="AC20" s="32"/>
+      <c r="AD20" s="32"/>
+      <c r="AE20" s="32"/>
+      <c r="AF20" s="32"/>
+      <c r="AG20" s="32"/>
     </row>
     <row r="21" spans="1:33" s="1" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="17"/>
-      <c r="C21" s="72"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
@@ -1999,207 +2020,207 @@
       <c r="R21" s="13"/>
       <c r="S21" s="9"/>
       <c r="T21" s="9"/>
-      <c r="U21" s="27"/>
-      <c r="V21" s="27"/>
-      <c r="W21" s="27"/>
-      <c r="X21" s="27"/>
-      <c r="Y21" s="27"/>
-      <c r="Z21" s="27"/>
-      <c r="AA21" s="27"/>
-      <c r="AB21" s="27"/>
-      <c r="AC21" s="27"/>
-      <c r="AD21" s="27"/>
-      <c r="AE21" s="27"/>
-      <c r="AF21" s="27"/>
-      <c r="AG21" s="27"/>
+      <c r="U21" s="32"/>
+      <c r="V21" s="32"/>
+      <c r="W21" s="32"/>
+      <c r="X21" s="32"/>
+      <c r="Y21" s="32"/>
+      <c r="Z21" s="32"/>
+      <c r="AA21" s="32"/>
+      <c r="AB21" s="32"/>
+      <c r="AC21" s="32"/>
+      <c r="AD21" s="32"/>
+      <c r="AE21" s="32"/>
+      <c r="AF21" s="32"/>
+      <c r="AG21" s="32"/>
     </row>
     <row r="22" spans="1:33" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="46"/>
-      <c r="B22" s="73" t="s">
+      <c r="A22" s="18"/>
+      <c r="B22" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="34"/>
+      <c r="D22" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="74"/>
-      <c r="D22" s="29" t="s">
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="49"/>
+      <c r="Q22" s="49"/>
+      <c r="R22" s="49"/>
+      <c r="S22" s="49"/>
+      <c r="T22" s="53"/>
+      <c r="U22" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="71" t="s">
+      <c r="V22" s="56"/>
+      <c r="W22" s="57"/>
+      <c r="X22" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="29"/>
-      <c r="T22" s="66"/>
-      <c r="U22" s="75" t="s">
+      <c r="Y22" s="57"/>
+      <c r="Z22" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="V22" s="77"/>
-      <c r="W22" s="76"/>
-      <c r="X22" s="75" t="s">
+      <c r="AA22" s="56"/>
+      <c r="AB22" s="56"/>
+      <c r="AC22" s="57"/>
+      <c r="AD22" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="Y22" s="76"/>
-      <c r="Z22" s="75" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA22" s="77"/>
-      <c r="AB22" s="77"/>
-      <c r="AC22" s="76"/>
-      <c r="AD22" s="78" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE22" s="79"/>
-      <c r="AF22" s="79"/>
-      <c r="AG22" s="79"/>
+      <c r="AE22" s="40"/>
+      <c r="AF22" s="40"/>
+      <c r="AG22" s="40"/>
     </row>
     <row r="23" spans="1:33" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="46"/>
-      <c r="B23" s="61"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="67"/>
-      <c r="L23" s="67"/>
-      <c r="M23" s="67"/>
-      <c r="N23" s="67"/>
-      <c r="O23" s="67"/>
-      <c r="P23" s="67"/>
-      <c r="Q23" s="67"/>
-      <c r="R23" s="67"/>
-      <c r="S23" s="67"/>
-      <c r="T23" s="68"/>
-      <c r="U23" s="69"/>
-      <c r="V23" s="67"/>
-      <c r="W23" s="68"/>
-      <c r="X23" s="69"/>
-      <c r="Y23" s="68"/>
-      <c r="Z23" s="69"/>
-      <c r="AA23" s="67"/>
-      <c r="AB23" s="67"/>
-      <c r="AC23" s="68"/>
-      <c r="AD23" s="69"/>
-      <c r="AE23" s="67"/>
-      <c r="AF23" s="67"/>
-      <c r="AG23" s="70"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="42"/>
+      <c r="R23" s="42"/>
+      <c r="S23" s="42"/>
+      <c r="T23" s="54"/>
+      <c r="U23" s="41"/>
+      <c r="V23" s="42"/>
+      <c r="W23" s="54"/>
+      <c r="X23" s="41"/>
+      <c r="Y23" s="54"/>
+      <c r="Z23" s="41"/>
+      <c r="AA23" s="42"/>
+      <c r="AB23" s="42"/>
+      <c r="AC23" s="54"/>
+      <c r="AD23" s="41"/>
+      <c r="AE23" s="42"/>
+      <c r="AF23" s="42"/>
+      <c r="AG23" s="43"/>
     </row>
     <row r="24" spans="1:33" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="37"/>
-      <c r="D24" s="38" t="s">
+      <c r="B24" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="39"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="39"/>
-      <c r="S24" s="39"/>
-      <c r="T24" s="39"/>
-      <c r="U24" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="V24" s="40"/>
-      <c r="W24" s="40"/>
-      <c r="X24" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y24" s="40"/>
-      <c r="Z24" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA24" s="35"/>
-      <c r="AB24" s="35"/>
-      <c r="AC24" s="35"/>
-      <c r="AD24" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE24" s="36"/>
-      <c r="AF24" s="36"/>
-      <c r="AG24" s="36"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="82" t="s">
+        <v>42</v>
+      </c>
+      <c r="I24" s="82"/>
+      <c r="J24" s="82"/>
+      <c r="K24" s="82"/>
+      <c r="L24" s="82"/>
+      <c r="M24" s="82"/>
+      <c r="N24" s="82"/>
+      <c r="O24" s="82"/>
+      <c r="P24" s="82"/>
+      <c r="Q24" s="82"/>
+      <c r="R24" s="82"/>
+      <c r="S24" s="82"/>
+      <c r="T24" s="82"/>
+      <c r="U24" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="V24" s="31"/>
+      <c r="W24" s="31"/>
+      <c r="X24" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y24" s="31"/>
+      <c r="Z24" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA24" s="83"/>
+      <c r="AB24" s="83"/>
+      <c r="AC24" s="83"/>
+      <c r="AD24" s="84" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE24" s="84"/>
+      <c r="AF24" s="84"/>
+      <c r="AG24" s="84"/>
     </row>
     <row r="25" spans="1:33" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="32"/>
-      <c r="P25" s="32"/>
-      <c r="Q25" s="32"/>
-      <c r="R25" s="32"/>
-      <c r="S25" s="32"/>
-      <c r="T25" s="32"/>
-      <c r="U25" s="32"/>
-      <c r="V25" s="32"/>
-      <c r="W25" s="32"/>
-      <c r="X25" s="32"/>
-      <c r="Y25" s="32"/>
-      <c r="Z25" s="32"/>
-      <c r="AA25" s="32"/>
-      <c r="AB25" s="32"/>
-      <c r="AC25" s="32"/>
-      <c r="AD25" s="32"/>
-      <c r="AE25" s="32"/>
-      <c r="AF25" s="32"/>
-      <c r="AG25" s="32"/>
+      <c r="B25" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="26"/>
+      <c r="U25" s="26"/>
+      <c r="V25" s="26"/>
+      <c r="W25" s="26"/>
+      <c r="X25" s="26"/>
+      <c r="Y25" s="26"/>
+      <c r="Z25" s="26"/>
+      <c r="AA25" s="26"/>
+      <c r="AB25" s="26"/>
+      <c r="AC25" s="26"/>
+      <c r="AD25" s="26"/>
+      <c r="AE25" s="26"/>
+      <c r="AF25" s="26"/>
+      <c r="AG25" s="26"/>
     </row>
     <row r="26" spans="1:33" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
-      <c r="U26" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="V26" s="33"/>
-      <c r="W26" s="33"/>
-      <c r="X26" s="33"/>
-      <c r="Y26" s="33"/>
-      <c r="Z26" s="33"/>
-      <c r="AA26" s="33"/>
-      <c r="AB26" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC26" s="34"/>
-      <c r="AD26" s="34"/>
-      <c r="AE26" s="34"/>
-      <c r="AF26" s="34"/>
-      <c r="AG26" s="34"/>
+      <c r="U26" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="V26" s="27"/>
+      <c r="W26" s="27"/>
+      <c r="X26" s="27"/>
+      <c r="Y26" s="27"/>
+      <c r="Z26" s="27"/>
+      <c r="AA26" s="27"/>
+      <c r="AB26" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC26" s="28"/>
+      <c r="AD26" s="28"/>
+      <c r="AE26" s="28"/>
+      <c r="AF26" s="28"/>
+      <c r="AG26" s="28"/>
     </row>
     <row r="27" spans="1:33" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
@@ -2219,15 +2240,15 @@
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
-      <c r="H29" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
+      <c r="H29" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" s="59"/>
+      <c r="J29" s="59"/>
+      <c r="K29" s="59"/>
+      <c r="L29" s="59"/>
+      <c r="M29" s="59"/>
+      <c r="N29" s="59"/>
       <c r="O29" s="12"/>
       <c r="P29" s="12"/>
       <c r="Q29" s="12"/>
@@ -2246,43 +2267,73 @@
       <c r="AG29" s="14"/>
     </row>
     <row r="30" spans="1:33" s="15" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31"/>
-      <c r="P30" s="31"/>
-      <c r="Q30" s="31"/>
-      <c r="R30" s="31"/>
-      <c r="S30" s="31"/>
-      <c r="T30" s="31"/>
-      <c r="U30" s="31"/>
-      <c r="V30" s="31"/>
-      <c r="W30" s="31"/>
-      <c r="X30" s="31"/>
-      <c r="Y30" s="31"/>
-      <c r="Z30" s="31"/>
-      <c r="AA30" s="31"/>
-      <c r="AB30" s="31"/>
-      <c r="AC30" s="31"/>
-      <c r="AD30" s="31"/>
-      <c r="AE30" s="31"/>
-      <c r="AF30" s="31"/>
-      <c r="AG30" s="31"/>
+      <c r="B30" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="25"/>
+      <c r="T30" s="25"/>
+      <c r="U30" s="25"/>
+      <c r="V30" s="25"/>
+      <c r="W30" s="25"/>
+      <c r="X30" s="25"/>
+      <c r="Y30" s="25"/>
+      <c r="Z30" s="25"/>
+      <c r="AA30" s="25"/>
+      <c r="AB30" s="25"/>
+      <c r="AC30" s="25"/>
+      <c r="AD30" s="25"/>
+      <c r="AE30" s="25"/>
+      <c r="AF30" s="25"/>
+      <c r="AG30" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
+  <mergeCells count="46">
+    <mergeCell ref="H29:N29"/>
+    <mergeCell ref="B10:R10"/>
+    <mergeCell ref="B11:R11"/>
+    <mergeCell ref="X5:AA5"/>
+    <mergeCell ref="B14:R18"/>
+    <mergeCell ref="U14:AG18"/>
+    <mergeCell ref="U13:AG13"/>
+    <mergeCell ref="B13:R13"/>
+    <mergeCell ref="B7:R7"/>
+    <mergeCell ref="B6:R6"/>
+    <mergeCell ref="B9:R9"/>
+    <mergeCell ref="X6:AE6"/>
+    <mergeCell ref="X7:AG7"/>
+    <mergeCell ref="X8:AG8"/>
+    <mergeCell ref="X9:AG9"/>
+    <mergeCell ref="X10:AG10"/>
+    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="AD22:AG23"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="H19:R19"/>
+    <mergeCell ref="U19:AG19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="H20:R20"/>
+    <mergeCell ref="U20:AG20"/>
+    <mergeCell ref="D22:G23"/>
+    <mergeCell ref="H22:T23"/>
+    <mergeCell ref="U22:W23"/>
+    <mergeCell ref="X22:Y23"/>
+    <mergeCell ref="Z22:AC23"/>
+    <mergeCell ref="U10:W10"/>
     <mergeCell ref="U6:W6"/>
     <mergeCell ref="U3:AB3"/>
     <mergeCell ref="U7:W7"/>
@@ -2299,33 +2350,6 @@
     <mergeCell ref="X24:Y24"/>
     <mergeCell ref="U21:AG21"/>
     <mergeCell ref="B22:C23"/>
-    <mergeCell ref="D22:G23"/>
-    <mergeCell ref="H22:T23"/>
-    <mergeCell ref="U22:W23"/>
-    <mergeCell ref="X22:Y23"/>
-    <mergeCell ref="Z22:AC23"/>
-    <mergeCell ref="AD22:AG23"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="H19:R19"/>
-    <mergeCell ref="U19:AG19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="H20:R20"/>
-    <mergeCell ref="U20:AG20"/>
-    <mergeCell ref="B10:R10"/>
-    <mergeCell ref="B11:R11"/>
-    <mergeCell ref="X5:AA5"/>
-    <mergeCell ref="B14:R18"/>
-    <mergeCell ref="U14:AG18"/>
-    <mergeCell ref="U13:AG13"/>
-    <mergeCell ref="B13:R13"/>
-    <mergeCell ref="B7:R7"/>
-    <mergeCell ref="B6:R6"/>
-    <mergeCell ref="B9:R9"/>
-    <mergeCell ref="X6:AE6"/>
-    <mergeCell ref="X7:AG7"/>
-    <mergeCell ref="X8:AG8"/>
-    <mergeCell ref="X9:AG9"/>
-    <mergeCell ref="X10:AG10"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>

--- a/public/templates/opl.xlsx
+++ b/public/templates/opl.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Soft\openserv\OpenServer\domains\telegram.gaz\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FE8EAA-468D-4747-B240-3EB4A79A5289}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25254167-412B-40F1-B015-388CA4FDF545}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15240" yWindow="2055" windowWidth="13050" windowHeight="11835" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -85,9 +85,6 @@
     <t>Dennis Thomas</t>
   </si>
   <si>
-    <t xml:space="preserve">W&amp;D: 10x10x10 cm / 55kg (габариты, вес и мера) </t>
-  </si>
-  <si>
     <t>{name_own}</t>
   </si>
   <si>
@@ -160,6 +157,9 @@
   </si>
   <si>
     <t>[sb]</t>
+  </si>
+  <si>
+    <t>W&amp;D: {wd}</t>
   </si>
 </sst>
 </file>
@@ -250,7 +250,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -405,17 +405,6 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -654,9 +643,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -664,96 +651,79 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -798,10 +768,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -813,19 +780,157 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -834,185 +939,50 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1035,16 +1005,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>41412</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>25887</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>285874</xdr:colOff>
+      <xdr:colOff>472510</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>9647</xdr:rowOff>
+      <xdr:rowOff>440017</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1073,8 +1043,58 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="600075" y="5305425"/>
-          <a:ext cx="885949" cy="876422"/>
+          <a:off x="445189" y="5538998"/>
+          <a:ext cx="1238653" cy="1092269"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>179268</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24852A85-A757-47BE-80E9-21F899004E87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="399435" y="153629"/>
+          <a:ext cx="2295956" cy="716970"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1413,8 +1433,8 @@
   </sheetPr>
   <dimension ref="A1:AH30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T26" sqref="T26"/>
+    <sheetView tabSelected="1" zoomScale="62" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:AG25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1481,227 +1501,266 @@
     </row>
     <row r="3" spans="1:34" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="5"/>
-      <c r="U3" s="24" t="s">
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="U3" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="24"/>
-      <c r="AA3" s="24"/>
-      <c r="AB3" s="24"/>
+      <c r="V3" s="69"/>
+      <c r="W3" s="69"/>
+      <c r="X3" s="69"/>
+      <c r="Y3" s="69"/>
+      <c r="Z3" s="69"/>
+      <c r="AA3" s="69"/>
+      <c r="AB3" s="69"/>
       <c r="AG3" s="6"/>
     </row>
     <row r="4" spans="1:34" s="1" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
       <c r="AG4" s="6"/>
     </row>
     <row r="5" spans="1:34" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
       <c r="U5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="X5" s="61" t="s">
+      <c r="X5" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y5" s="27"/>
+      <c r="Z5" s="27"/>
+      <c r="AA5" s="27"/>
+      <c r="AG5" s="6"/>
+    </row>
+    <row r="6" spans="1:34" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="U6" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="V6" s="68"/>
+      <c r="W6" s="68"/>
+      <c r="X6" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="Y5" s="61"/>
-      <c r="Z5" s="61"/>
-      <c r="AA5" s="61"/>
-      <c r="AG5" s="6"/>
-    </row>
-    <row r="6" spans="1:34" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="79" t="s">
+      <c r="Y6" s="46"/>
+      <c r="Z6" s="46"/>
+      <c r="AA6" s="46"/>
+      <c r="AB6" s="46"/>
+      <c r="AC6" s="46"/>
+      <c r="AD6" s="46"/>
+      <c r="AE6" s="46"/>
+      <c r="AG6" s="10"/>
+    </row>
+    <row r="7" spans="1:34" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="60"/>
-      <c r="O6" s="60"/>
-      <c r="P6" s="60"/>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="60"/>
-      <c r="U6" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="V6" s="23"/>
-      <c r="W6" s="23"/>
-      <c r="X6" s="80" t="s">
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="U7" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="V7" s="68"/>
+      <c r="W7" s="68"/>
+      <c r="X7" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="Y6" s="80"/>
-      <c r="Z6" s="80"/>
-      <c r="AA6" s="80"/>
-      <c r="AB6" s="80"/>
-      <c r="AC6" s="80"/>
-      <c r="AD6" s="80"/>
-      <c r="AE6" s="80"/>
-      <c r="AG6" s="10"/>
-    </row>
-    <row r="7" spans="1:34" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="79" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="60"/>
-      <c r="N7" s="60"/>
-      <c r="O7" s="60"/>
-      <c r="P7" s="60"/>
-      <c r="Q7" s="60"/>
-      <c r="R7" s="60"/>
-      <c r="U7" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="V7" s="23"/>
-      <c r="W7" s="23"/>
-      <c r="X7" s="81" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y7" s="81"/>
-      <c r="Z7" s="81"/>
-      <c r="AA7" s="81"/>
-      <c r="AB7" s="81"/>
-      <c r="AC7" s="81"/>
-      <c r="AD7" s="81"/>
-      <c r="AE7" s="81"/>
-      <c r="AF7" s="81"/>
-      <c r="AG7" s="81"/>
+      <c r="Y7" s="47"/>
+      <c r="Z7" s="47"/>
+      <c r="AA7" s="47"/>
+      <c r="AB7" s="47"/>
+      <c r="AC7" s="47"/>
+      <c r="AD7" s="47"/>
+      <c r="AE7" s="47"/>
+      <c r="AF7" s="47"/>
+      <c r="AG7" s="47"/>
     </row>
     <row r="8" spans="1:34" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="16"/>
+      <c r="B8" s="15"/>
       <c r="U8" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="X8" s="37" t="s">
+      <c r="X8" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y8" s="48"/>
+      <c r="Z8" s="48"/>
+      <c r="AA8" s="48"/>
+      <c r="AB8" s="48"/>
+      <c r="AC8" s="48"/>
+      <c r="AD8" s="48"/>
+      <c r="AE8" s="48"/>
+      <c r="AF8" s="48"/>
+      <c r="AG8" s="48"/>
+    </row>
+    <row r="9" spans="1:34" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="U9" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="V9" s="49"/>
+      <c r="W9" s="49"/>
+      <c r="X9" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y9" s="47"/>
+      <c r="Z9" s="47"/>
+      <c r="AA9" s="47"/>
+      <c r="AB9" s="47"/>
+      <c r="AC9" s="47"/>
+      <c r="AD9" s="47"/>
+      <c r="AE9" s="47"/>
+      <c r="AF9" s="47"/>
+      <c r="AG9" s="47"/>
+    </row>
+    <row r="10" spans="1:34" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="B10" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="U10" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="V10" s="67"/>
+      <c r="W10" s="67"/>
+      <c r="X10" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="Y8" s="37"/>
-      <c r="Z8" s="37"/>
-      <c r="AA8" s="37"/>
-      <c r="AB8" s="37"/>
-      <c r="AC8" s="37"/>
-      <c r="AD8" s="37"/>
-      <c r="AE8" s="37"/>
-      <c r="AF8" s="37"/>
-      <c r="AG8" s="37"/>
-    </row>
-    <row r="9" spans="1:34" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="60"/>
-      <c r="N9" s="60"/>
-      <c r="O9" s="60"/>
-      <c r="P9" s="60"/>
-      <c r="Q9" s="60"/>
-      <c r="R9" s="60"/>
-      <c r="U9" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="V9" s="38"/>
-      <c r="W9" s="38"/>
-      <c r="X9" s="81" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y9" s="81"/>
-      <c r="Z9" s="81"/>
-      <c r="AA9" s="81"/>
-      <c r="AB9" s="81"/>
-      <c r="AC9" s="81"/>
-      <c r="AD9" s="81"/>
-      <c r="AE9" s="81"/>
-      <c r="AF9" s="81"/>
-      <c r="AG9" s="81"/>
-    </row>
-    <row r="10" spans="1:34" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="60" t="s">
+      <c r="Y10" s="48"/>
+      <c r="Z10" s="48"/>
+      <c r="AA10" s="48"/>
+      <c r="AB10" s="48"/>
+      <c r="AC10" s="48"/>
+      <c r="AD10" s="48"/>
+      <c r="AE10" s="48"/>
+      <c r="AF10" s="48"/>
+      <c r="AG10" s="48"/>
+    </row>
+    <row r="11" spans="1:34" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
+      <c r="B11" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="60"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="60"/>
-      <c r="P10" s="60"/>
-      <c r="Q10" s="60"/>
-      <c r="R10" s="60"/>
-      <c r="U10" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="V10" s="58"/>
-      <c r="W10" s="58"/>
-      <c r="X10" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y10" s="37"/>
-      <c r="Z10" s="37"/>
-      <c r="AA10" s="37"/>
-      <c r="AB10" s="37"/>
-      <c r="AC10" s="37"/>
-      <c r="AD10" s="37"/>
-      <c r="AE10" s="37"/>
-      <c r="AF10" s="37"/>
-      <c r="AG10" s="37"/>
-    </row>
-    <row r="11" spans="1:34" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="60"/>
-      <c r="N11" s="60"/>
-      <c r="O11" s="60"/>
-      <c r="P11" s="60"/>
-      <c r="Q11" s="60"/>
-      <c r="R11" s="60"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
       <c r="AG11" s="10"/>
     </row>
     <row r="12" spans="1:34" s="1" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1709,518 +1768,519 @@
       <c r="AG12" s="6"/>
     </row>
     <row r="13" spans="1:34" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="77" t="s">
+      <c r="A13" s="17"/>
+      <c r="B13" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="44"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="V13" s="41"/>
+      <c r="W13" s="41"/>
+      <c r="X13" s="41"/>
+      <c r="Y13" s="41"/>
+      <c r="Z13" s="41"/>
+      <c r="AA13" s="41"/>
+      <c r="AB13" s="41"/>
+      <c r="AC13" s="41"/>
+      <c r="AD13" s="41"/>
+      <c r="AE13" s="41"/>
+      <c r="AF13" s="41"/>
+      <c r="AG13" s="42"/>
+    </row>
+    <row r="14" spans="1:34" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="17"/>
+      <c r="B14" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="30"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="V14" s="35"/>
+      <c r="W14" s="35"/>
+      <c r="X14" s="35"/>
+      <c r="Y14" s="35"/>
+      <c r="Z14" s="35"/>
+      <c r="AA14" s="35"/>
+      <c r="AB14" s="35"/>
+      <c r="AC14" s="35"/>
+      <c r="AD14" s="35"/>
+      <c r="AE14" s="35"/>
+      <c r="AF14" s="35"/>
+      <c r="AG14" s="36"/>
+      <c r="AH14" s="19"/>
+    </row>
+    <row r="15" spans="1:34" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="17"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="30"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="34"/>
+      <c r="V15" s="35"/>
+      <c r="W15" s="35"/>
+      <c r="X15" s="35"/>
+      <c r="Y15" s="35"/>
+      <c r="Z15" s="35"/>
+      <c r="AA15" s="35"/>
+      <c r="AB15" s="35"/>
+      <c r="AC15" s="35"/>
+      <c r="AD15" s="35"/>
+      <c r="AE15" s="35"/>
+      <c r="AF15" s="35"/>
+      <c r="AG15" s="36"/>
+      <c r="AH15" s="19"/>
+    </row>
+    <row r="16" spans="1:34" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="17"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="30"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="34"/>
+      <c r="V16" s="35"/>
+      <c r="W16" s="35"/>
+      <c r="X16" s="35"/>
+      <c r="Y16" s="35"/>
+      <c r="Z16" s="35"/>
+      <c r="AA16" s="35"/>
+      <c r="AB16" s="35"/>
+      <c r="AC16" s="35"/>
+      <c r="AD16" s="35"/>
+      <c r="AE16" s="35"/>
+      <c r="AF16" s="35"/>
+      <c r="AG16" s="36"/>
+    </row>
+    <row r="17" spans="1:33" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="17"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="30"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="34"/>
+      <c r="V17" s="35"/>
+      <c r="W17" s="35"/>
+      <c r="X17" s="35"/>
+      <c r="Y17" s="35"/>
+      <c r="Z17" s="35"/>
+      <c r="AA17" s="35"/>
+      <c r="AB17" s="35"/>
+      <c r="AC17" s="35"/>
+      <c r="AD17" s="35"/>
+      <c r="AE17" s="35"/>
+      <c r="AF17" s="35"/>
+      <c r="AG17" s="36"/>
+    </row>
+    <row r="18" spans="1:33" s="1" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="17"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="33"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="38"/>
+      <c r="W18" s="38"/>
+      <c r="X18" s="38"/>
+      <c r="Y18" s="38"/>
+      <c r="Z18" s="38"/>
+      <c r="AA18" s="38"/>
+      <c r="AB18" s="38"/>
+      <c r="AC18" s="38"/>
+      <c r="AD18" s="38"/>
+      <c r="AE18" s="38"/>
+      <c r="AF18" s="38"/>
+      <c r="AG18" s="39"/>
+    </row>
+    <row r="19" spans="1:33" s="1" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="56"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="V19" s="57"/>
+      <c r="W19" s="57"/>
+      <c r="X19" s="57"/>
+      <c r="Y19" s="57"/>
+      <c r="Z19" s="57"/>
+      <c r="AA19" s="57"/>
+      <c r="AB19" s="57"/>
+      <c r="AC19" s="57"/>
+      <c r="AD19" s="57"/>
+      <c r="AE19" s="57"/>
+      <c r="AF19" s="57"/>
+      <c r="AG19" s="57"/>
+    </row>
+    <row r="20" spans="1:33" s="1" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="59"/>
+      <c r="N20" s="59"/>
+      <c r="O20" s="59"/>
+      <c r="P20" s="59"/>
+      <c r="Q20" s="59"/>
+      <c r="R20" s="59"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="V20" s="60"/>
+      <c r="W20" s="60"/>
+      <c r="X20" s="60"/>
+      <c r="Y20" s="60"/>
+      <c r="Z20" s="60"/>
+      <c r="AA20" s="60"/>
+      <c r="AB20" s="60"/>
+      <c r="AC20" s="60"/>
+      <c r="AD20" s="60"/>
+      <c r="AE20" s="60"/>
+      <c r="AF20" s="60"/>
+      <c r="AG20" s="60"/>
+    </row>
+    <row r="21" spans="1:33" s="1" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="16"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="22"/>
+      <c r="U21" s="80"/>
+      <c r="V21" s="80"/>
+      <c r="W21" s="80"/>
+      <c r="X21" s="80"/>
+      <c r="Y21" s="80"/>
+      <c r="Z21" s="80"/>
+      <c r="AA21" s="80"/>
+      <c r="AB21" s="80"/>
+      <c r="AC21" s="80"/>
+      <c r="AD21" s="80"/>
+      <c r="AE21" s="80"/>
+      <c r="AF21" s="80"/>
+      <c r="AG21" s="80"/>
+    </row>
+    <row r="22" spans="1:33" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="17"/>
+      <c r="B22" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="82"/>
+      <c r="D22" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="62"/>
+      <c r="Q22" s="62"/>
+      <c r="R22" s="62"/>
+      <c r="S22" s="62"/>
+      <c r="T22" s="63"/>
+      <c r="U22" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="V22" s="62"/>
+      <c r="W22" s="63"/>
+      <c r="X22" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y22" s="63"/>
+      <c r="Z22" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA22" s="62"/>
+      <c r="AB22" s="62"/>
+      <c r="AC22" s="63"/>
+      <c r="AD22" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE22" s="51"/>
+      <c r="AF22" s="51"/>
+      <c r="AG22" s="51"/>
+    </row>
+    <row r="23" spans="1:33" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="17"/>
+      <c r="B23" s="83"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="53"/>
+      <c r="Q23" s="53"/>
+      <c r="R23" s="53"/>
+      <c r="S23" s="53"/>
+      <c r="T23" s="65"/>
+      <c r="U23" s="52"/>
+      <c r="V23" s="53"/>
+      <c r="W23" s="65"/>
+      <c r="X23" s="52"/>
+      <c r="Y23" s="65"/>
+      <c r="Z23" s="52"/>
+      <c r="AA23" s="53"/>
+      <c r="AB23" s="53"/>
+      <c r="AC23" s="65"/>
+      <c r="AD23" s="52"/>
+      <c r="AE23" s="53"/>
+      <c r="AF23" s="53"/>
+      <c r="AG23" s="54"/>
+    </row>
+    <row r="24" spans="1:33" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="76"/>
+      <c r="D24" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="75"/>
-      <c r="L13" s="75"/>
-      <c r="M13" s="75"/>
-      <c r="N13" s="75"/>
-      <c r="O13" s="75"/>
-      <c r="P13" s="75"/>
-      <c r="Q13" s="75"/>
-      <c r="R13" s="78"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="74" t="s">
-        <v>32</v>
-      </c>
-      <c r="V13" s="75"/>
-      <c r="W13" s="75"/>
-      <c r="X13" s="75"/>
-      <c r="Y13" s="75"/>
-      <c r="Z13" s="75"/>
-      <c r="AA13" s="75"/>
-      <c r="AB13" s="75"/>
-      <c r="AC13" s="75"/>
-      <c r="AD13" s="75"/>
-      <c r="AE13" s="75"/>
-      <c r="AF13" s="75"/>
-      <c r="AG13" s="76"/>
-    </row>
-    <row r="14" spans="1:34" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="18"/>
-      <c r="B14" s="62" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="63"/>
-      <c r="M14" s="63"/>
-      <c r="N14" s="63"/>
-      <c r="O14" s="63"/>
-      <c r="P14" s="63"/>
-      <c r="Q14" s="63"/>
-      <c r="R14" s="64"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="68" t="s">
-        <v>39</v>
-      </c>
-      <c r="V14" s="69"/>
-      <c r="W14" s="69"/>
-      <c r="X14" s="69"/>
-      <c r="Y14" s="69"/>
-      <c r="Z14" s="69"/>
-      <c r="AA14" s="69"/>
-      <c r="AB14" s="69"/>
-      <c r="AC14" s="69"/>
-      <c r="AD14" s="69"/>
-      <c r="AE14" s="69"/>
-      <c r="AF14" s="69"/>
-      <c r="AG14" s="70"/>
-      <c r="AH14" s="20"/>
-    </row>
-    <row r="15" spans="1:34" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="18"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="63"/>
-      <c r="O15" s="63"/>
-      <c r="P15" s="63"/>
-      <c r="Q15" s="63"/>
-      <c r="R15" s="64"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="68"/>
-      <c r="V15" s="69"/>
-      <c r="W15" s="69"/>
-      <c r="X15" s="69"/>
-      <c r="Y15" s="69"/>
-      <c r="Z15" s="69"/>
-      <c r="AA15" s="69"/>
-      <c r="AB15" s="69"/>
-      <c r="AC15" s="69"/>
-      <c r="AD15" s="69"/>
-      <c r="AE15" s="69"/>
-      <c r="AF15" s="69"/>
-      <c r="AG15" s="70"/>
-      <c r="AH15" s="20"/>
-    </row>
-    <row r="16" spans="1:34" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="63"/>
-      <c r="M16" s="63"/>
-      <c r="N16" s="63"/>
-      <c r="O16" s="63"/>
-      <c r="P16" s="63"/>
-      <c r="Q16" s="63"/>
-      <c r="R16" s="64"/>
-      <c r="T16" s="19"/>
-      <c r="U16" s="68"/>
-      <c r="V16" s="69"/>
-      <c r="W16" s="69"/>
-      <c r="X16" s="69"/>
-      <c r="Y16" s="69"/>
-      <c r="Z16" s="69"/>
-      <c r="AA16" s="69"/>
-      <c r="AB16" s="69"/>
-      <c r="AC16" s="69"/>
-      <c r="AD16" s="69"/>
-      <c r="AE16" s="69"/>
-      <c r="AF16" s="69"/>
-      <c r="AG16" s="70"/>
-    </row>
-    <row r="17" spans="1:33" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="18"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="63"/>
-      <c r="O17" s="63"/>
-      <c r="P17" s="63"/>
-      <c r="Q17" s="63"/>
-      <c r="R17" s="64"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="68"/>
-      <c r="V17" s="69"/>
-      <c r="W17" s="69"/>
-      <c r="X17" s="69"/>
-      <c r="Y17" s="69"/>
-      <c r="Z17" s="69"/>
-      <c r="AA17" s="69"/>
-      <c r="AB17" s="69"/>
-      <c r="AC17" s="69"/>
-      <c r="AD17" s="69"/>
-      <c r="AE17" s="69"/>
-      <c r="AF17" s="69"/>
-      <c r="AG17" s="70"/>
-    </row>
-    <row r="18" spans="1:33" s="1" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="18"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="66"/>
-      <c r="M18" s="66"/>
-      <c r="N18" s="66"/>
-      <c r="O18" s="66"/>
-      <c r="P18" s="66"/>
-      <c r="Q18" s="66"/>
-      <c r="R18" s="67"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="71"/>
-      <c r="V18" s="72"/>
-      <c r="W18" s="72"/>
-      <c r="X18" s="72"/>
-      <c r="Y18" s="72"/>
-      <c r="Z18" s="72"/>
-      <c r="AA18" s="72"/>
-      <c r="AB18" s="72"/>
-      <c r="AC18" s="72"/>
-      <c r="AD18" s="72"/>
-      <c r="AE18" s="72"/>
-      <c r="AF18" s="72"/>
-      <c r="AG18" s="73"/>
-    </row>
-    <row r="19" spans="1:33" s="1" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="45"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="45"/>
-      <c r="R19" s="45"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="V19" s="46"/>
-      <c r="W19" s="46"/>
-      <c r="X19" s="46"/>
-      <c r="Y19" s="46"/>
-      <c r="Z19" s="46"/>
-      <c r="AA19" s="46"/>
-      <c r="AB19" s="46"/>
-      <c r="AC19" s="46"/>
-      <c r="AD19" s="46"/>
-      <c r="AE19" s="46"/>
-      <c r="AF19" s="46"/>
-      <c r="AG19" s="46"/>
-    </row>
-    <row r="20" spans="1:33" s="1" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="48"/>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="48"/>
-      <c r="R20" s="48"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="V20" s="32"/>
-      <c r="W20" s="32"/>
-      <c r="X20" s="32"/>
-      <c r="Y20" s="32"/>
-      <c r="Z20" s="32"/>
-      <c r="AA20" s="32"/>
-      <c r="AB20" s="32"/>
-      <c r="AC20" s="32"/>
-      <c r="AD20" s="32"/>
-      <c r="AE20" s="32"/>
-      <c r="AF20" s="32"/>
-      <c r="AG20" s="32"/>
-    </row>
-    <row r="21" spans="1:33" s="1" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="17"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="32"/>
-      <c r="V21" s="32"/>
-      <c r="W21" s="32"/>
-      <c r="X21" s="32"/>
-      <c r="Y21" s="32"/>
-      <c r="Z21" s="32"/>
-      <c r="AA21" s="32"/>
-      <c r="AB21" s="32"/>
-      <c r="AC21" s="32"/>
-      <c r="AD21" s="32"/>
-      <c r="AE21" s="32"/>
-      <c r="AF21" s="32"/>
-      <c r="AG21" s="32"/>
-    </row>
-    <row r="22" spans="1:33" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="18"/>
-      <c r="B22" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="34"/>
-      <c r="D22" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="49"/>
-      <c r="N22" s="49"/>
-      <c r="O22" s="49"/>
-      <c r="P22" s="49"/>
-      <c r="Q22" s="49"/>
-      <c r="R22" s="49"/>
-      <c r="S22" s="49"/>
-      <c r="T22" s="53"/>
-      <c r="U22" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="V22" s="56"/>
-      <c r="W22" s="57"/>
-      <c r="X22" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y22" s="57"/>
-      <c r="Z22" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA22" s="56"/>
-      <c r="AB22" s="56"/>
-      <c r="AC22" s="57"/>
-      <c r="AD22" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE22" s="40"/>
-      <c r="AF22" s="40"/>
-      <c r="AG22" s="40"/>
-    </row>
-    <row r="23" spans="1:33" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="18"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="42"/>
-      <c r="P23" s="42"/>
-      <c r="Q23" s="42"/>
-      <c r="R23" s="42"/>
-      <c r="S23" s="42"/>
-      <c r="T23" s="54"/>
-      <c r="U23" s="41"/>
-      <c r="V23" s="42"/>
-      <c r="W23" s="54"/>
-      <c r="X23" s="41"/>
-      <c r="Y23" s="54"/>
-      <c r="Z23" s="41"/>
-      <c r="AA23" s="42"/>
-      <c r="AB23" s="42"/>
-      <c r="AC23" s="54"/>
-      <c r="AD23" s="41"/>
-      <c r="AE23" s="42"/>
-      <c r="AF23" s="42"/>
-      <c r="AG23" s="43"/>
-    </row>
-    <row r="24" spans="1:33" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="30" t="s">
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="78" t="s">
+        <v>41</v>
+      </c>
+      <c r="I24" s="78"/>
+      <c r="J24" s="78"/>
+      <c r="K24" s="78"/>
+      <c r="L24" s="78"/>
+      <c r="M24" s="78"/>
+      <c r="N24" s="78"/>
+      <c r="O24" s="78"/>
+      <c r="P24" s="78"/>
+      <c r="Q24" s="78"/>
+      <c r="R24" s="78"/>
+      <c r="S24" s="78"/>
+      <c r="T24" s="78"/>
+      <c r="U24" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="I24" s="82"/>
-      <c r="J24" s="82"/>
-      <c r="K24" s="82"/>
-      <c r="L24" s="82"/>
-      <c r="M24" s="82"/>
-      <c r="N24" s="82"/>
-      <c r="O24" s="82"/>
-      <c r="P24" s="82"/>
-      <c r="Q24" s="82"/>
-      <c r="R24" s="82"/>
-      <c r="S24" s="82"/>
-      <c r="T24" s="82"/>
-      <c r="U24" s="31" t="s">
+      <c r="V24" s="79"/>
+      <c r="W24" s="79"/>
+      <c r="X24" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="V24" s="31"/>
-      <c r="W24" s="31"/>
-      <c r="X24" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y24" s="31"/>
-      <c r="Z24" s="83" t="s">
+      <c r="Y24" s="79"/>
+      <c r="Z24" s="74" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA24" s="74"/>
+      <c r="AB24" s="74"/>
+      <c r="AC24" s="74"/>
+      <c r="AD24" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE24" s="75"/>
+      <c r="AF24" s="75"/>
+      <c r="AG24" s="75"/>
+    </row>
+    <row r="25" spans="1:33" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="AA24" s="83"/>
-      <c r="AB24" s="83"/>
-      <c r="AC24" s="83"/>
-      <c r="AD24" s="84" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE24" s="84"/>
-      <c r="AF24" s="84"/>
-      <c r="AG24" s="84"/>
-    </row>
-    <row r="25" spans="1:33" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="26"/>
-      <c r="R25" s="26"/>
-      <c r="S25" s="26"/>
-      <c r="T25" s="26"/>
-      <c r="U25" s="26"/>
-      <c r="V25" s="26"/>
-      <c r="W25" s="26"/>
-      <c r="X25" s="26"/>
-      <c r="Y25" s="26"/>
-      <c r="Z25" s="26"/>
-      <c r="AA25" s="26"/>
-      <c r="AB25" s="26"/>
-      <c r="AC25" s="26"/>
-      <c r="AD25" s="26"/>
-      <c r="AE25" s="26"/>
-      <c r="AF25" s="26"/>
-      <c r="AG25" s="26"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="71"/>
+      <c r="L25" s="71"/>
+      <c r="M25" s="71"/>
+      <c r="N25" s="71"/>
+      <c r="O25" s="71"/>
+      <c r="P25" s="71"/>
+      <c r="Q25" s="71"/>
+      <c r="R25" s="71"/>
+      <c r="S25" s="71"/>
+      <c r="T25" s="71"/>
+      <c r="U25" s="71"/>
+      <c r="V25" s="71"/>
+      <c r="W25" s="71"/>
+      <c r="X25" s="71"/>
+      <c r="Y25" s="71"/>
+      <c r="Z25" s="71"/>
+      <c r="AA25" s="71"/>
+      <c r="AB25" s="71"/>
+      <c r="AC25" s="71"/>
+      <c r="AD25" s="71"/>
+      <c r="AE25" s="71"/>
+      <c r="AF25" s="71"/>
+      <c r="AG25" s="71"/>
     </row>
     <row r="26" spans="1:33" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
-      <c r="U26" s="27" t="s">
+      <c r="U26" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="V26" s="27"/>
-      <c r="W26" s="27"/>
-      <c r="X26" s="27"/>
-      <c r="Y26" s="27"/>
-      <c r="Z26" s="27"/>
-      <c r="AA26" s="27"/>
-      <c r="AB26" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC26" s="28"/>
-      <c r="AD26" s="28"/>
-      <c r="AE26" s="28"/>
-      <c r="AF26" s="28"/>
-      <c r="AG26" s="28"/>
+      <c r="V26" s="72"/>
+      <c r="W26" s="72"/>
+      <c r="X26" s="72"/>
+      <c r="Y26" s="72"/>
+      <c r="Z26" s="72"/>
+      <c r="AA26" s="72"/>
+      <c r="AB26" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC26" s="73"/>
+      <c r="AD26" s="73"/>
+      <c r="AE26" s="73"/>
+      <c r="AF26" s="73"/>
+      <c r="AG26" s="73"/>
     </row>
     <row r="27" spans="1:33" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
@@ -2240,15 +2300,15 @@
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
-      <c r="H29" s="59" t="s">
+      <c r="H29" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="I29" s="59"/>
-      <c r="J29" s="59"/>
-      <c r="K29" s="59"/>
-      <c r="L29" s="59"/>
-      <c r="M29" s="59"/>
-      <c r="N29" s="59"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
       <c r="O29" s="12"/>
       <c r="P29" s="12"/>
       <c r="Q29" s="12"/>
@@ -2264,76 +2324,46 @@
       <c r="AD29" s="12"/>
       <c r="AE29" s="12"/>
       <c r="AF29" s="12"/>
-      <c r="AG29" s="14"/>
-    </row>
-    <row r="30" spans="1:33" s="15" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="25" t="s">
+      <c r="AG29" s="13"/>
+    </row>
+    <row r="30" spans="1:33" s="14" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="25"/>
-      <c r="O30" s="25"/>
-      <c r="P30" s="25"/>
-      <c r="Q30" s="25"/>
-      <c r="R30" s="25"/>
-      <c r="S30" s="25"/>
-      <c r="T30" s="25"/>
-      <c r="U30" s="25"/>
-      <c r="V30" s="25"/>
-      <c r="W30" s="25"/>
-      <c r="X30" s="25"/>
-      <c r="Y30" s="25"/>
-      <c r="Z30" s="25"/>
-      <c r="AA30" s="25"/>
-      <c r="AB30" s="25"/>
-      <c r="AC30" s="25"/>
-      <c r="AD30" s="25"/>
-      <c r="AE30" s="25"/>
-      <c r="AF30" s="25"/>
-      <c r="AG30" s="25"/>
+      <c r="C30" s="70"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="70"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="70"/>
+      <c r="J30" s="70"/>
+      <c r="K30" s="70"/>
+      <c r="L30" s="70"/>
+      <c r="M30" s="70"/>
+      <c r="N30" s="70"/>
+      <c r="O30" s="70"/>
+      <c r="P30" s="70"/>
+      <c r="Q30" s="70"/>
+      <c r="R30" s="70"/>
+      <c r="S30" s="70"/>
+      <c r="T30" s="70"/>
+      <c r="U30" s="70"/>
+      <c r="V30" s="70"/>
+      <c r="W30" s="70"/>
+      <c r="X30" s="70"/>
+      <c r="Y30" s="70"/>
+      <c r="Z30" s="70"/>
+      <c r="AA30" s="70"/>
+      <c r="AB30" s="70"/>
+      <c r="AC30" s="70"/>
+      <c r="AD30" s="70"/>
+      <c r="AE30" s="70"/>
+      <c r="AF30" s="70"/>
+      <c r="AG30" s="70"/>
     </row>
   </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="H29:N29"/>
-    <mergeCell ref="B10:R10"/>
-    <mergeCell ref="B11:R11"/>
-    <mergeCell ref="X5:AA5"/>
-    <mergeCell ref="B14:R18"/>
-    <mergeCell ref="U14:AG18"/>
-    <mergeCell ref="U13:AG13"/>
-    <mergeCell ref="B13:R13"/>
-    <mergeCell ref="B7:R7"/>
-    <mergeCell ref="B6:R6"/>
-    <mergeCell ref="B9:R9"/>
-    <mergeCell ref="X6:AE6"/>
-    <mergeCell ref="X7:AG7"/>
-    <mergeCell ref="X8:AG8"/>
-    <mergeCell ref="X9:AG9"/>
-    <mergeCell ref="X10:AG10"/>
-    <mergeCell ref="U9:W9"/>
-    <mergeCell ref="AD22:AG23"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="H19:R19"/>
-    <mergeCell ref="U19:AG19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="H20:R20"/>
-    <mergeCell ref="U20:AG20"/>
-    <mergeCell ref="D22:G23"/>
-    <mergeCell ref="H22:T23"/>
-    <mergeCell ref="U22:W23"/>
-    <mergeCell ref="X22:Y23"/>
-    <mergeCell ref="Z22:AC23"/>
-    <mergeCell ref="U10:W10"/>
+  <mergeCells count="47">
     <mergeCell ref="U6:W6"/>
     <mergeCell ref="U3:AB3"/>
     <mergeCell ref="U7:W7"/>
@@ -2350,6 +2380,37 @@
     <mergeCell ref="X24:Y24"/>
     <mergeCell ref="U21:AG21"/>
     <mergeCell ref="B22:C23"/>
+    <mergeCell ref="X10:AG10"/>
+    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="AD22:AG23"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="H19:R19"/>
+    <mergeCell ref="U19:AG19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="H20:R20"/>
+    <mergeCell ref="U20:AG20"/>
+    <mergeCell ref="D22:G23"/>
+    <mergeCell ref="H22:T23"/>
+    <mergeCell ref="U22:W23"/>
+    <mergeCell ref="X22:Y23"/>
+    <mergeCell ref="Z22:AC23"/>
+    <mergeCell ref="U10:W10"/>
+    <mergeCell ref="C3:O5"/>
+    <mergeCell ref="H29:N29"/>
+    <mergeCell ref="B10:R10"/>
+    <mergeCell ref="B11:R11"/>
+    <mergeCell ref="X5:AA5"/>
+    <mergeCell ref="B14:R18"/>
+    <mergeCell ref="U14:AG18"/>
+    <mergeCell ref="U13:AG13"/>
+    <mergeCell ref="B13:R13"/>
+    <mergeCell ref="B7:R7"/>
+    <mergeCell ref="B6:R6"/>
+    <mergeCell ref="B9:R9"/>
+    <mergeCell ref="X6:AE6"/>
+    <mergeCell ref="X7:AG7"/>
+    <mergeCell ref="X8:AG8"/>
+    <mergeCell ref="X9:AG9"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>

--- a/public/templates/opl.xlsx
+++ b/public/templates/opl.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Soft\openserv\OpenServer\domains\telegram.gaz\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25254167-412B-40F1-B015-388CA4FDF545}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F29F03-4C5C-4DA0-870F-0B38FC758116}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15240" yWindow="2055" windowWidth="13050" windowHeight="11835" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -250,7 +250,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -308,17 +308,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -649,17 +638,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right/>
@@ -726,11 +704,89 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -762,13 +818,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -777,34 +833,28 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -813,58 +863,58 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -876,62 +926,86 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -939,50 +1013,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1007,13 +1069,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>41412</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>25887</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>472510</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>440017</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1055,23 +1117,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>108238</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>179268</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>180396</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>14431</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2">
+        <xdr:cNvPr id="4" name="Рисунок 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24852A85-A757-47BE-80E9-21F899004E87}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9671010-343A-4033-AD15-932A7584518C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1080,21 +1142,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="399435" y="153629"/>
-          <a:ext cx="2295956" cy="716970"/>
+          <a:off x="310283" y="274205"/>
+          <a:ext cx="2590511" cy="887556"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1431,15 +1487,17 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:AH30"/>
+  <dimension ref="A1:AH32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="62" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:AG25"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="132" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31:N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="6" width="3.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="1.83203125" style="1" customWidth="1"/>
+    <col min="3" max="6" width="3.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="2.33203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="1.83203125" style="1" customWidth="1"/>
@@ -1461,653 +1519,623 @@
     <col min="34" max="34" width="3.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="1" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="3"/>
-      <c r="AG1" s="4"/>
-    </row>
-    <row r="2" spans="1:34" s="1" customFormat="1" ht="0.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="5"/>
-      <c r="AG2" s="6"/>
-    </row>
-    <row r="3" spans="1:34" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" ht="11.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:34" s="1" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="4"/>
+    </row>
+    <row r="3" spans="1:34" s="1" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="5"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="U3" s="69" t="s">
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="AG3" s="6"/>
+    </row>
+    <row r="4" spans="1:34" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="5"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="AG4" s="6"/>
+    </row>
+    <row r="5" spans="1:34" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="5"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="U5" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="V3" s="69"/>
-      <c r="W3" s="69"/>
-      <c r="X3" s="69"/>
-      <c r="Y3" s="69"/>
-      <c r="Z3" s="69"/>
-      <c r="AA3" s="69"/>
-      <c r="AB3" s="69"/>
-      <c r="AG3" s="6"/>
-    </row>
-    <row r="4" spans="1:34" s="1" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="5"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="AG4" s="6"/>
-    </row>
-    <row r="5" spans="1:34" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="U5" s="7" t="s">
+      <c r="V5" s="75"/>
+      <c r="W5" s="75"/>
+      <c r="X5" s="75"/>
+      <c r="Y5" s="75"/>
+      <c r="Z5" s="75"/>
+      <c r="AA5" s="75"/>
+      <c r="AB5" s="75"/>
+      <c r="AG5" s="6"/>
+    </row>
+    <row r="6" spans="1:34" s="1" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="5"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="73"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="73"/>
+      <c r="Q6" s="73"/>
+      <c r="R6" s="73"/>
+      <c r="AG6" s="6"/>
+    </row>
+    <row r="7" spans="1:34" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="73"/>
+      <c r="Q7" s="73"/>
+      <c r="R7" s="73"/>
+      <c r="U7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="X5" s="27" t="s">
+      <c r="X7" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="Y5" s="27"/>
-      <c r="Z5" s="27"/>
-      <c r="AA5" s="27"/>
-      <c r="AG5" s="6"/>
-    </row>
-    <row r="6" spans="1:34" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="45" t="s">
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="25"/>
+      <c r="AA7" s="25"/>
+      <c r="AG7" s="6"/>
+    </row>
+    <row r="8" spans="1:34" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
+      <c r="B8" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="U6" s="68" t="s">
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="U8" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="V6" s="68"/>
-      <c r="W6" s="68"/>
-      <c r="X6" s="46" t="s">
+      <c r="V8" s="74"/>
+      <c r="W8" s="74"/>
+      <c r="X8" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="Y6" s="46"/>
-      <c r="Z6" s="46"/>
-      <c r="AA6" s="46"/>
-      <c r="AB6" s="46"/>
-      <c r="AC6" s="46"/>
-      <c r="AD6" s="46"/>
-      <c r="AE6" s="46"/>
-      <c r="AG6" s="10"/>
-    </row>
-    <row r="7" spans="1:34" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="45" t="s">
+      <c r="Y8" s="44"/>
+      <c r="Z8" s="44"/>
+      <c r="AA8" s="44"/>
+      <c r="AB8" s="44"/>
+      <c r="AC8" s="44"/>
+      <c r="AD8" s="44"/>
+      <c r="AE8" s="44"/>
+      <c r="AG8" s="10"/>
+    </row>
+    <row r="9" spans="1:34" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="U7" s="68" t="s">
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="U9" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="V7" s="68"/>
-      <c r="W7" s="68"/>
-      <c r="X7" s="47" t="s">
+      <c r="V9" s="74"/>
+      <c r="W9" s="74"/>
+      <c r="X9" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="Y7" s="47"/>
-      <c r="Z7" s="47"/>
-      <c r="AA7" s="47"/>
-      <c r="AB7" s="47"/>
-      <c r="AC7" s="47"/>
-      <c r="AD7" s="47"/>
-      <c r="AE7" s="47"/>
-      <c r="AF7" s="47"/>
-      <c r="AG7" s="47"/>
-    </row>
-    <row r="8" spans="1:34" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="15"/>
-      <c r="U8" s="9" t="s">
+      <c r="Y9" s="45"/>
+      <c r="Z9" s="45"/>
+      <c r="AA9" s="45"/>
+      <c r="AB9" s="45"/>
+      <c r="AC9" s="45"/>
+      <c r="AD9" s="45"/>
+      <c r="AE9" s="45"/>
+      <c r="AF9" s="45"/>
+      <c r="AG9" s="45"/>
+    </row>
+    <row r="10" spans="1:34" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="15"/>
+      <c r="U10" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="X8" s="48" t="s">
+      <c r="X10" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="Y8" s="48"/>
-      <c r="Z8" s="48"/>
-      <c r="AA8" s="48"/>
-      <c r="AB8" s="48"/>
-      <c r="AC8" s="48"/>
-      <c r="AD8" s="48"/>
-      <c r="AE8" s="48"/>
-      <c r="AF8" s="48"/>
-      <c r="AG8" s="48"/>
-    </row>
-    <row r="9" spans="1:34" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="45" t="s">
+      <c r="Y10" s="46"/>
+      <c r="Z10" s="46"/>
+      <c r="AA10" s="46"/>
+      <c r="AB10" s="46"/>
+      <c r="AC10" s="46"/>
+      <c r="AD10" s="46"/>
+      <c r="AE10" s="46"/>
+      <c r="AF10" s="46"/>
+      <c r="AG10" s="46"/>
+    </row>
+    <row r="11" spans="1:34" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
-      <c r="U9" s="49" t="s">
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="U11" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="V9" s="49"/>
-      <c r="W9" s="49"/>
-      <c r="X9" s="47" t="s">
+      <c r="V11" s="51"/>
+      <c r="W11" s="51"/>
+      <c r="X11" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="Y9" s="47"/>
-      <c r="Z9" s="47"/>
-      <c r="AA9" s="47"/>
-      <c r="AB9" s="47"/>
-      <c r="AC9" s="47"/>
-      <c r="AD9" s="47"/>
-      <c r="AE9" s="47"/>
-      <c r="AF9" s="47"/>
-      <c r="AG9" s="47"/>
-    </row>
-    <row r="10" spans="1:34" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="26" t="s">
+      <c r="Y11" s="45"/>
+      <c r="Z11" s="45"/>
+      <c r="AA11" s="45"/>
+      <c r="AB11" s="45"/>
+      <c r="AC11" s="45"/>
+      <c r="AD11" s="45"/>
+      <c r="AE11" s="45"/>
+      <c r="AF11" s="45"/>
+      <c r="AG11" s="45"/>
+    </row>
+    <row r="12" spans="1:34" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="16"/>
+      <c r="B12" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="U10" s="67" t="s">
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="U12" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="V10" s="67"/>
-      <c r="W10" s="67"/>
-      <c r="X10" s="48" t="s">
+      <c r="V12" s="72"/>
+      <c r="W12" s="72"/>
+      <c r="X12" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="Y10" s="48"/>
-      <c r="Z10" s="48"/>
-      <c r="AA10" s="48"/>
-      <c r="AB10" s="48"/>
-      <c r="AC10" s="48"/>
-      <c r="AD10" s="48"/>
-      <c r="AE10" s="48"/>
-      <c r="AF10" s="48"/>
-      <c r="AG10" s="48"/>
-    </row>
-    <row r="11" spans="1:34" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="26" t="s">
+      <c r="Y12" s="46"/>
+      <c r="Z12" s="46"/>
+      <c r="AA12" s="46"/>
+      <c r="AB12" s="46"/>
+      <c r="AC12" s="46"/>
+      <c r="AD12" s="46"/>
+      <c r="AE12" s="46"/>
+      <c r="AF12" s="46"/>
+      <c r="AG12" s="46"/>
+    </row>
+    <row r="13" spans="1:34" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="16"/>
+      <c r="B13" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="AG11" s="10"/>
-    </row>
-    <row r="12" spans="1:34" s="1" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="5"/>
-      <c r="AG12" s="6"/>
-    </row>
-    <row r="13" spans="1:34" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
-      <c r="B13" s="43" t="s">
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="AG13" s="10"/>
+    </row>
+    <row r="14" spans="1:34" s="1" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="5"/>
+      <c r="AG14" s="6"/>
+    </row>
+    <row r="15" spans="1:34" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="16"/>
+      <c r="B15" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="44"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="40" t="s">
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="V13" s="41"/>
-      <c r="W13" s="41"/>
-      <c r="X13" s="41"/>
-      <c r="Y13" s="41"/>
-      <c r="Z13" s="41"/>
-      <c r="AA13" s="41"/>
-      <c r="AB13" s="41"/>
-      <c r="AC13" s="41"/>
-      <c r="AD13" s="41"/>
-      <c r="AE13" s="41"/>
-      <c r="AF13" s="41"/>
-      <c r="AG13" s="42"/>
-    </row>
-    <row r="14" spans="1:34" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
-      <c r="B14" s="28" t="s">
+      <c r="V15" s="39"/>
+      <c r="W15" s="39"/>
+      <c r="X15" s="39"/>
+      <c r="Y15" s="39"/>
+      <c r="Z15" s="39"/>
+      <c r="AA15" s="39"/>
+      <c r="AB15" s="39"/>
+      <c r="AC15" s="39"/>
+      <c r="AD15" s="39"/>
+      <c r="AE15" s="39"/>
+      <c r="AF15" s="39"/>
+      <c r="AG15" s="40"/>
+    </row>
+    <row r="16" spans="1:34" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="16"/>
+      <c r="B16" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="30"/>
-      <c r="T14" s="18"/>
-      <c r="U14" s="34" t="s">
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="28"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="V14" s="35"/>
-      <c r="W14" s="35"/>
-      <c r="X14" s="35"/>
-      <c r="Y14" s="35"/>
-      <c r="Z14" s="35"/>
-      <c r="AA14" s="35"/>
-      <c r="AB14" s="35"/>
-      <c r="AC14" s="35"/>
-      <c r="AD14" s="35"/>
-      <c r="AE14" s="35"/>
-      <c r="AF14" s="35"/>
-      <c r="AG14" s="36"/>
-      <c r="AH14" s="19"/>
-    </row>
-    <row r="15" spans="1:34" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="30"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="34"/>
-      <c r="V15" s="35"/>
-      <c r="W15" s="35"/>
-      <c r="X15" s="35"/>
-      <c r="Y15" s="35"/>
-      <c r="Z15" s="35"/>
-      <c r="AA15" s="35"/>
-      <c r="AB15" s="35"/>
-      <c r="AC15" s="35"/>
-      <c r="AD15" s="35"/>
-      <c r="AE15" s="35"/>
-      <c r="AF15" s="35"/>
-      <c r="AG15" s="36"/>
-      <c r="AH15" s="19"/>
-    </row>
-    <row r="16" spans="1:34" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="30"/>
-      <c r="T16" s="18"/>
-      <c r="U16" s="34"/>
-      <c r="V16" s="35"/>
-      <c r="W16" s="35"/>
-      <c r="X16" s="35"/>
-      <c r="Y16" s="35"/>
-      <c r="Z16" s="35"/>
-      <c r="AA16" s="35"/>
-      <c r="AB16" s="35"/>
-      <c r="AC16" s="35"/>
-      <c r="AD16" s="35"/>
-      <c r="AE16" s="35"/>
-      <c r="AF16" s="35"/>
-      <c r="AG16" s="36"/>
-    </row>
-    <row r="17" spans="1:33" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="17"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="30"/>
-      <c r="T17" s="18"/>
-      <c r="U17" s="34"/>
-      <c r="V17" s="35"/>
-      <c r="W17" s="35"/>
-      <c r="X17" s="35"/>
-      <c r="Y17" s="35"/>
-      <c r="Z17" s="35"/>
-      <c r="AA17" s="35"/>
-      <c r="AB17" s="35"/>
-      <c r="AC17" s="35"/>
-      <c r="AD17" s="35"/>
-      <c r="AE17" s="35"/>
-      <c r="AF17" s="35"/>
-      <c r="AG17" s="36"/>
-    </row>
-    <row r="18" spans="1:33" s="1" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="32"/>
-      <c r="R18" s="33"/>
-      <c r="T18" s="18"/>
-      <c r="U18" s="37"/>
-      <c r="V18" s="38"/>
-      <c r="W18" s="38"/>
-      <c r="X18" s="38"/>
-      <c r="Y18" s="38"/>
-      <c r="Z18" s="38"/>
-      <c r="AA18" s="38"/>
-      <c r="AB18" s="38"/>
-      <c r="AC18" s="38"/>
-      <c r="AD18" s="38"/>
-      <c r="AE18" s="38"/>
-      <c r="AF18" s="38"/>
-      <c r="AG18" s="39"/>
-    </row>
-    <row r="19" spans="1:33" s="1" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="55" t="s">
+      <c r="V16" s="33"/>
+      <c r="W16" s="33"/>
+      <c r="X16" s="33"/>
+      <c r="Y16" s="33"/>
+      <c r="Z16" s="33"/>
+      <c r="AA16" s="33"/>
+      <c r="AB16" s="33"/>
+      <c r="AC16" s="33"/>
+      <c r="AD16" s="33"/>
+      <c r="AE16" s="33"/>
+      <c r="AF16" s="33"/>
+      <c r="AG16" s="34"/>
+      <c r="AH16" s="18"/>
+    </row>
+    <row r="17" spans="1:34" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="16"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="28"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="32"/>
+      <c r="V17" s="33"/>
+      <c r="W17" s="33"/>
+      <c r="X17" s="33"/>
+      <c r="Y17" s="33"/>
+      <c r="Z17" s="33"/>
+      <c r="AA17" s="33"/>
+      <c r="AB17" s="33"/>
+      <c r="AC17" s="33"/>
+      <c r="AD17" s="33"/>
+      <c r="AE17" s="33"/>
+      <c r="AF17" s="33"/>
+      <c r="AG17" s="34"/>
+      <c r="AH17" s="18"/>
+    </row>
+    <row r="18" spans="1:34" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="16"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="28"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="32"/>
+      <c r="V18" s="33"/>
+      <c r="W18" s="33"/>
+      <c r="X18" s="33"/>
+      <c r="Y18" s="33"/>
+      <c r="Z18" s="33"/>
+      <c r="AA18" s="33"/>
+      <c r="AB18" s="33"/>
+      <c r="AC18" s="33"/>
+      <c r="AD18" s="33"/>
+      <c r="AE18" s="33"/>
+      <c r="AF18" s="33"/>
+      <c r="AG18" s="34"/>
+    </row>
+    <row r="19" spans="1:34" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="16"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="28"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="32"/>
+      <c r="V19" s="33"/>
+      <c r="W19" s="33"/>
+      <c r="X19" s="33"/>
+      <c r="Y19" s="33"/>
+      <c r="Z19" s="33"/>
+      <c r="AA19" s="33"/>
+      <c r="AB19" s="33"/>
+      <c r="AC19" s="33"/>
+      <c r="AD19" s="33"/>
+      <c r="AE19" s="33"/>
+      <c r="AF19" s="33"/>
+      <c r="AG19" s="34"/>
+    </row>
+    <row r="20" spans="1:34" s="1" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="16"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="31"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="35"/>
+      <c r="V20" s="36"/>
+      <c r="W20" s="36"/>
+      <c r="X20" s="36"/>
+      <c r="Y20" s="36"/>
+      <c r="Z20" s="36"/>
+      <c r="AA20" s="36"/>
+      <c r="AB20" s="36"/>
+      <c r="AC20" s="36"/>
+      <c r="AD20" s="36"/>
+      <c r="AE20" s="36"/>
+      <c r="AF20" s="36"/>
+      <c r="AG20" s="37"/>
+    </row>
+    <row r="21" spans="1:34" s="1" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="56" t="s">
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="56"/>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="56"/>
-      <c r="R19" s="56"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="57" t="s">
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="59"/>
+      <c r="N21" s="59"/>
+      <c r="O21" s="59"/>
+      <c r="P21" s="59"/>
+      <c r="Q21" s="59"/>
+      <c r="R21" s="59"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="V19" s="57"/>
-      <c r="W19" s="57"/>
-      <c r="X19" s="57"/>
-      <c r="Y19" s="57"/>
-      <c r="Z19" s="57"/>
-      <c r="AA19" s="57"/>
-      <c r="AB19" s="57"/>
-      <c r="AC19" s="57"/>
-      <c r="AD19" s="57"/>
-      <c r="AE19" s="57"/>
-      <c r="AF19" s="57"/>
-      <c r="AG19" s="57"/>
-    </row>
-    <row r="20" spans="1:33" s="1" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="58" t="s">
+      <c r="V21" s="60"/>
+      <c r="W21" s="60"/>
+      <c r="X21" s="60"/>
+      <c r="Y21" s="60"/>
+      <c r="Z21" s="60"/>
+      <c r="AA21" s="60"/>
+      <c r="AB21" s="60"/>
+      <c r="AC21" s="60"/>
+      <c r="AD21" s="60"/>
+      <c r="AE21" s="60"/>
+      <c r="AF21" s="60"/>
+      <c r="AG21" s="60"/>
+    </row>
+    <row r="22" spans="1:34" s="1" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="59" t="s">
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="62" t="s">
         <v>19</v>
-      </c>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="59"/>
-      <c r="O20" s="59"/>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="59"/>
-      <c r="R20" s="59"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="60" t="s">
-        <v>9</v>
-      </c>
-      <c r="V20" s="60"/>
-      <c r="W20" s="60"/>
-      <c r="X20" s="60"/>
-      <c r="Y20" s="60"/>
-      <c r="Z20" s="60"/>
-      <c r="AA20" s="60"/>
-      <c r="AB20" s="60"/>
-      <c r="AC20" s="60"/>
-      <c r="AD20" s="60"/>
-      <c r="AE20" s="60"/>
-      <c r="AF20" s="60"/>
-      <c r="AG20" s="60"/>
-    </row>
-    <row r="21" spans="1:33" s="1" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="16"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="23"/>
-      <c r="S21" s="22"/>
-      <c r="T21" s="22"/>
-      <c r="U21" s="80"/>
-      <c r="V21" s="80"/>
-      <c r="W21" s="80"/>
-      <c r="X21" s="80"/>
-      <c r="Y21" s="80"/>
-      <c r="Z21" s="80"/>
-      <c r="AA21" s="80"/>
-      <c r="AB21" s="80"/>
-      <c r="AC21" s="80"/>
-      <c r="AD21" s="80"/>
-      <c r="AE21" s="80"/>
-      <c r="AF21" s="80"/>
-      <c r="AG21" s="80"/>
-    </row>
-    <row r="22" spans="1:33" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
-      <c r="B22" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="82"/>
-      <c r="D22" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="66" t="s">
-        <v>12</v>
       </c>
       <c r="I22" s="62"/>
       <c r="J22" s="62"/>
@@ -2119,298 +2147,374 @@
       <c r="P22" s="62"/>
       <c r="Q22" s="62"/>
       <c r="R22" s="62"/>
-      <c r="S22" s="62"/>
-      <c r="T22" s="63"/>
-      <c r="U22" s="66" t="s">
+      <c r="T22" s="9"/>
+      <c r="U22" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="V22" s="63"/>
+      <c r="W22" s="63"/>
+      <c r="X22" s="63"/>
+      <c r="Y22" s="63"/>
+      <c r="Z22" s="63"/>
+      <c r="AA22" s="63"/>
+      <c r="AB22" s="63"/>
+      <c r="AC22" s="63"/>
+      <c r="AD22" s="63"/>
+      <c r="AE22" s="63"/>
+      <c r="AF22" s="63"/>
+      <c r="AG22" s="63"/>
+    </row>
+    <row r="23" spans="1:34" s="1" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="22"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="86"/>
+      <c r="V23" s="86"/>
+      <c r="W23" s="86"/>
+      <c r="X23" s="86"/>
+      <c r="Y23" s="86"/>
+      <c r="Z23" s="86"/>
+      <c r="AA23" s="86"/>
+      <c r="AB23" s="86"/>
+      <c r="AC23" s="86"/>
+      <c r="AD23" s="86"/>
+      <c r="AE23" s="86"/>
+      <c r="AF23" s="86"/>
+      <c r="AG23" s="86"/>
+    </row>
+    <row r="24" spans="1:34" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="16"/>
+      <c r="B24" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="48"/>
+      <c r="D24" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="65"/>
+      <c r="N24" s="65"/>
+      <c r="O24" s="65"/>
+      <c r="P24" s="65"/>
+      <c r="Q24" s="65"/>
+      <c r="R24" s="65"/>
+      <c r="S24" s="65"/>
+      <c r="T24" s="66"/>
+      <c r="U24" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="V22" s="62"/>
-      <c r="W22" s="63"/>
-      <c r="X22" s="66" t="s">
+      <c r="V24" s="65"/>
+      <c r="W24" s="66"/>
+      <c r="X24" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="Y22" s="63"/>
-      <c r="Z22" s="66" t="s">
+      <c r="Y24" s="66"/>
+      <c r="Z24" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="AA22" s="62"/>
-      <c r="AB22" s="62"/>
-      <c r="AC22" s="63"/>
-      <c r="AD22" s="50" t="s">
+      <c r="AA24" s="64"/>
+      <c r="AB24" s="64"/>
+      <c r="AC24" s="71"/>
+      <c r="AD24" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="AE22" s="51"/>
-      <c r="AF22" s="51"/>
-      <c r="AG22" s="51"/>
-    </row>
-    <row r="23" spans="1:33" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
-      <c r="B23" s="83"/>
-      <c r="C23" s="84"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="53"/>
-      <c r="O23" s="53"/>
-      <c r="P23" s="53"/>
-      <c r="Q23" s="53"/>
-      <c r="R23" s="53"/>
-      <c r="S23" s="53"/>
-      <c r="T23" s="65"/>
-      <c r="U23" s="52"/>
-      <c r="V23" s="53"/>
-      <c r="W23" s="65"/>
-      <c r="X23" s="52"/>
-      <c r="Y23" s="65"/>
-      <c r="Z23" s="52"/>
-      <c r="AA23" s="53"/>
-      <c r="AB23" s="53"/>
-      <c r="AC23" s="65"/>
-      <c r="AD23" s="52"/>
-      <c r="AE23" s="53"/>
-      <c r="AF23" s="53"/>
-      <c r="AG23" s="54"/>
-    </row>
-    <row r="24" spans="1:33" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="76" t="s">
+      <c r="AE24" s="53"/>
+      <c r="AF24" s="53"/>
+      <c r="AG24" s="53"/>
+    </row>
+    <row r="25" spans="1:34" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="16"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="55"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="55"/>
+      <c r="P25" s="55"/>
+      <c r="Q25" s="55"/>
+      <c r="R25" s="55"/>
+      <c r="S25" s="55"/>
+      <c r="T25" s="68"/>
+      <c r="U25" s="54"/>
+      <c r="V25" s="55"/>
+      <c r="W25" s="68"/>
+      <c r="X25" s="54"/>
+      <c r="Y25" s="68"/>
+      <c r="Z25" s="54"/>
+      <c r="AA25" s="55"/>
+      <c r="AB25" s="55"/>
+      <c r="AC25" s="68"/>
+      <c r="AD25" s="54"/>
+      <c r="AE25" s="55"/>
+      <c r="AF25" s="55"/>
+      <c r="AG25" s="56"/>
+    </row>
+    <row r="26" spans="1:34" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="76"/>
-      <c r="D24" s="77" t="s">
+      <c r="C26" s="82"/>
+      <c r="D26" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="78" t="s">
+      <c r="E26" s="83"/>
+      <c r="F26" s="83"/>
+      <c r="G26" s="83"/>
+      <c r="H26" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="I24" s="78"/>
-      <c r="J24" s="78"/>
-      <c r="K24" s="78"/>
-      <c r="L24" s="78"/>
-      <c r="M24" s="78"/>
-      <c r="N24" s="78"/>
-      <c r="O24" s="78"/>
-      <c r="P24" s="78"/>
-      <c r="Q24" s="78"/>
-      <c r="R24" s="78"/>
-      <c r="S24" s="78"/>
-      <c r="T24" s="78"/>
-      <c r="U24" s="79" t="s">
+      <c r="I26" s="84"/>
+      <c r="J26" s="84"/>
+      <c r="K26" s="84"/>
+      <c r="L26" s="84"/>
+      <c r="M26" s="84"/>
+      <c r="N26" s="84"/>
+      <c r="O26" s="84"/>
+      <c r="P26" s="84"/>
+      <c r="Q26" s="84"/>
+      <c r="R26" s="84"/>
+      <c r="S26" s="84"/>
+      <c r="T26" s="84"/>
+      <c r="U26" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="V24" s="79"/>
-      <c r="W24" s="79"/>
-      <c r="X24" s="79" t="s">
+      <c r="V26" s="85"/>
+      <c r="W26" s="85"/>
+      <c r="X26" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="Y24" s="79"/>
-      <c r="Z24" s="74" t="s">
+      <c r="Y26" s="85"/>
+      <c r="Z26" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="AA24" s="74"/>
-      <c r="AB24" s="74"/>
-      <c r="AC24" s="74"/>
-      <c r="AD24" s="75" t="s">
+      <c r="AA26" s="80"/>
+      <c r="AB26" s="80"/>
+      <c r="AC26" s="80"/>
+      <c r="AD26" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="AE24" s="75"/>
-      <c r="AF24" s="75"/>
-      <c r="AG24" s="75"/>
-    </row>
-    <row r="25" spans="1:33" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="71" t="s">
+      <c r="AE26" s="81"/>
+      <c r="AF26" s="81"/>
+      <c r="AG26" s="81"/>
+    </row>
+    <row r="27" spans="1:34" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="71"/>
-      <c r="K25" s="71"/>
-      <c r="L25" s="71"/>
-      <c r="M25" s="71"/>
-      <c r="N25" s="71"/>
-      <c r="O25" s="71"/>
-      <c r="P25" s="71"/>
-      <c r="Q25" s="71"/>
-      <c r="R25" s="71"/>
-      <c r="S25" s="71"/>
-      <c r="T25" s="71"/>
-      <c r="U25" s="71"/>
-      <c r="V25" s="71"/>
-      <c r="W25" s="71"/>
-      <c r="X25" s="71"/>
-      <c r="Y25" s="71"/>
-      <c r="Z25" s="71"/>
-      <c r="AA25" s="71"/>
-      <c r="AB25" s="71"/>
-      <c r="AC25" s="71"/>
-      <c r="AD25" s="71"/>
-      <c r="AE25" s="71"/>
-      <c r="AF25" s="71"/>
-      <c r="AG25" s="71"/>
-    </row>
-    <row r="26" spans="1:33" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="5"/>
-      <c r="U26" s="72" t="s">
+      <c r="C27" s="77"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="77"/>
+      <c r="I27" s="77"/>
+      <c r="J27" s="77"/>
+      <c r="K27" s="77"/>
+      <c r="L27" s="77"/>
+      <c r="M27" s="77"/>
+      <c r="N27" s="77"/>
+      <c r="O27" s="77"/>
+      <c r="P27" s="77"/>
+      <c r="Q27" s="77"/>
+      <c r="R27" s="77"/>
+      <c r="S27" s="77"/>
+      <c r="T27" s="77"/>
+      <c r="U27" s="77"/>
+      <c r="V27" s="77"/>
+      <c r="W27" s="77"/>
+      <c r="X27" s="77"/>
+      <c r="Y27" s="77"/>
+      <c r="Z27" s="77"/>
+      <c r="AA27" s="77"/>
+      <c r="AB27" s="77"/>
+      <c r="AC27" s="77"/>
+      <c r="AD27" s="77"/>
+      <c r="AE27" s="77"/>
+      <c r="AF27" s="77"/>
+      <c r="AG27" s="77"/>
+    </row>
+    <row r="28" spans="1:34" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="5"/>
+      <c r="U28" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="V26" s="72"/>
-      <c r="W26" s="72"/>
-      <c r="X26" s="72"/>
-      <c r="Y26" s="72"/>
-      <c r="Z26" s="72"/>
-      <c r="AA26" s="72"/>
-      <c r="AB26" s="73" t="s">
+      <c r="V28" s="78"/>
+      <c r="W28" s="78"/>
+      <c r="X28" s="78"/>
+      <c r="Y28" s="78"/>
+      <c r="Z28" s="78"/>
+      <c r="AA28" s="78"/>
+      <c r="AB28" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="AC26" s="73"/>
-      <c r="AD26" s="73"/>
-      <c r="AE26" s="73"/>
-      <c r="AF26" s="73"/>
-      <c r="AG26" s="73"/>
-    </row>
-    <row r="27" spans="1:33" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="8"/>
-      <c r="AG27" s="10"/>
-    </row>
-    <row r="28" spans="1:33" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="8"/>
-      <c r="AG28" s="10"/>
-    </row>
-    <row r="29" spans="1:33" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC28" s="79"/>
+      <c r="AD28" s="79"/>
+      <c r="AE28" s="79"/>
+      <c r="AF28" s="79"/>
+      <c r="AG28" s="79"/>
+    </row>
+    <row r="29" spans="1:34" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="25" t="s">
+      <c r="B29" s="8"/>
+      <c r="AG29" s="10"/>
+    </row>
+    <row r="30" spans="1:34" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="9"/>
+      <c r="B30" s="8"/>
+      <c r="AG30" s="10"/>
+    </row>
+    <row r="31" spans="1:34" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="9"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="12"/>
-      <c r="V29" s="12"/>
-      <c r="W29" s="12"/>
-      <c r="X29" s="12"/>
-      <c r="Y29" s="12"/>
-      <c r="Z29" s="12"/>
-      <c r="AA29" s="12"/>
-      <c r="AB29" s="12"/>
-      <c r="AC29" s="12"/>
-      <c r="AD29" s="12"/>
-      <c r="AE29" s="12"/>
-      <c r="AF29" s="12"/>
-      <c r="AG29" s="13"/>
-    </row>
-    <row r="30" spans="1:33" s="14" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="70" t="s">
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="V31" s="12"/>
+      <c r="W31" s="12"/>
+      <c r="X31" s="12"/>
+      <c r="Y31" s="12"/>
+      <c r="Z31" s="12"/>
+      <c r="AA31" s="12"/>
+      <c r="AB31" s="12"/>
+      <c r="AC31" s="12"/>
+      <c r="AD31" s="12"/>
+      <c r="AE31" s="12"/>
+      <c r="AF31" s="12"/>
+      <c r="AG31" s="13"/>
+    </row>
+    <row r="32" spans="1:34" s="14" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="70"/>
-      <c r="D30" s="70"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="70"/>
-      <c r="H30" s="70"/>
-      <c r="I30" s="70"/>
-      <c r="J30" s="70"/>
-      <c r="K30" s="70"/>
-      <c r="L30" s="70"/>
-      <c r="M30" s="70"/>
-      <c r="N30" s="70"/>
-      <c r="O30" s="70"/>
-      <c r="P30" s="70"/>
-      <c r="Q30" s="70"/>
-      <c r="R30" s="70"/>
-      <c r="S30" s="70"/>
-      <c r="T30" s="70"/>
-      <c r="U30" s="70"/>
-      <c r="V30" s="70"/>
-      <c r="W30" s="70"/>
-      <c r="X30" s="70"/>
-      <c r="Y30" s="70"/>
-      <c r="Z30" s="70"/>
-      <c r="AA30" s="70"/>
-      <c r="AB30" s="70"/>
-      <c r="AC30" s="70"/>
-      <c r="AD30" s="70"/>
-      <c r="AE30" s="70"/>
-      <c r="AF30" s="70"/>
-      <c r="AG30" s="70"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="76"/>
+      <c r="G32" s="76"/>
+      <c r="H32" s="76"/>
+      <c r="I32" s="76"/>
+      <c r="J32" s="76"/>
+      <c r="K32" s="76"/>
+      <c r="L32" s="76"/>
+      <c r="M32" s="76"/>
+      <c r="N32" s="76"/>
+      <c r="O32" s="76"/>
+      <c r="P32" s="76"/>
+      <c r="Q32" s="76"/>
+      <c r="R32" s="76"/>
+      <c r="S32" s="76"/>
+      <c r="T32" s="76"/>
+      <c r="U32" s="76"/>
+      <c r="V32" s="76"/>
+      <c r="W32" s="76"/>
+      <c r="X32" s="76"/>
+      <c r="Y32" s="76"/>
+      <c r="Z32" s="76"/>
+      <c r="AA32" s="76"/>
+      <c r="AB32" s="76"/>
+      <c r="AC32" s="76"/>
+      <c r="AD32" s="76"/>
+      <c r="AE32" s="76"/>
+      <c r="AF32" s="76"/>
+      <c r="AG32" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="U6:W6"/>
-    <mergeCell ref="U3:AB3"/>
-    <mergeCell ref="U7:W7"/>
-    <mergeCell ref="B30:AG30"/>
-    <mergeCell ref="B25:AG25"/>
-    <mergeCell ref="U26:AA26"/>
-    <mergeCell ref="AB26:AG26"/>
-    <mergeCell ref="Z24:AC24"/>
-    <mergeCell ref="AD24:AG24"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:T24"/>
-    <mergeCell ref="U24:W24"/>
-    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="C3:R7"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="U5:AB5"/>
+    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="B32:AG32"/>
+    <mergeCell ref="B27:AG27"/>
+    <mergeCell ref="U28:AA28"/>
+    <mergeCell ref="AB28:AG28"/>
+    <mergeCell ref="Z26:AC26"/>
+    <mergeCell ref="AD26:AG26"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="H26:T26"/>
+    <mergeCell ref="U26:W26"/>
+    <mergeCell ref="X26:Y26"/>
+    <mergeCell ref="U23:AG23"/>
+    <mergeCell ref="X12:AG12"/>
+    <mergeCell ref="U11:W11"/>
+    <mergeCell ref="AD24:AG25"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="H21:R21"/>
     <mergeCell ref="U21:AG21"/>
-    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="H22:R22"/>
+    <mergeCell ref="U22:AG22"/>
+    <mergeCell ref="D24:G25"/>
+    <mergeCell ref="H24:T25"/>
+    <mergeCell ref="U24:W25"/>
+    <mergeCell ref="X24:Y25"/>
+    <mergeCell ref="Z24:AC25"/>
+    <mergeCell ref="U12:W12"/>
+    <mergeCell ref="H31:N31"/>
+    <mergeCell ref="B12:R12"/>
+    <mergeCell ref="B13:R13"/>
+    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="B16:R20"/>
+    <mergeCell ref="U16:AG20"/>
+    <mergeCell ref="U15:AG15"/>
+    <mergeCell ref="B15:R15"/>
+    <mergeCell ref="B9:R9"/>
+    <mergeCell ref="B8:R8"/>
+    <mergeCell ref="B11:R11"/>
+    <mergeCell ref="X8:AE8"/>
+    <mergeCell ref="X9:AG9"/>
     <mergeCell ref="X10:AG10"/>
-    <mergeCell ref="U9:W9"/>
-    <mergeCell ref="AD22:AG23"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="H19:R19"/>
-    <mergeCell ref="U19:AG19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="H20:R20"/>
-    <mergeCell ref="U20:AG20"/>
-    <mergeCell ref="D22:G23"/>
-    <mergeCell ref="H22:T23"/>
-    <mergeCell ref="U22:W23"/>
-    <mergeCell ref="X22:Y23"/>
-    <mergeCell ref="Z22:AC23"/>
-    <mergeCell ref="U10:W10"/>
-    <mergeCell ref="C3:O5"/>
-    <mergeCell ref="H29:N29"/>
-    <mergeCell ref="B10:R10"/>
-    <mergeCell ref="B11:R11"/>
-    <mergeCell ref="X5:AA5"/>
-    <mergeCell ref="B14:R18"/>
-    <mergeCell ref="U14:AG18"/>
-    <mergeCell ref="U13:AG13"/>
-    <mergeCell ref="B13:R13"/>
-    <mergeCell ref="B7:R7"/>
-    <mergeCell ref="B6:R6"/>
-    <mergeCell ref="B9:R9"/>
-    <mergeCell ref="X6:AE6"/>
-    <mergeCell ref="X7:AG7"/>
-    <mergeCell ref="X8:AG8"/>
-    <mergeCell ref="X9:AG9"/>
+    <mergeCell ref="X11:AG11"/>
+    <mergeCell ref="B24:C25"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>

--- a/public/templates/opl.xlsx
+++ b/public/templates/opl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Soft\openserv\OpenServer\domains\telegram.gaz\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F29F03-4C5C-4DA0-870F-0B38FC758116}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71DB448-1030-4B05-B7AB-6F5F2CE4F43B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -166,7 +166,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <name val="Arial"/>
@@ -194,13 +194,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -223,14 +216,15 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
+      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -830,7 +824,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -852,199 +846,199 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1489,8 +1483,8 @@
   </sheetPr>
   <dimension ref="A1:AH32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="132" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31:N31"/>
+    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
+      <selection activeCell="X10" sqref="X10:AG10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1556,315 +1550,315 @@
     </row>
     <row r="3" spans="1:34" s="1" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="5"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
       <c r="AG3" s="6"/>
     </row>
     <row r="4" spans="1:34" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
       <c r="AG4" s="6"/>
     </row>
     <row r="5" spans="1:34" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="5"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
-      <c r="L5" s="73"/>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="U5" s="75" t="s">
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="U5" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="V5" s="75"/>
-      <c r="W5" s="75"/>
-      <c r="X5" s="75"/>
-      <c r="Y5" s="75"/>
-      <c r="Z5" s="75"/>
-      <c r="AA5" s="75"/>
-      <c r="AB5" s="75"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="25"/>
+      <c r="X5" s="25"/>
+      <c r="Y5" s="25"/>
+      <c r="Z5" s="25"/>
+      <c r="AA5" s="25"/>
+      <c r="AB5" s="25"/>
       <c r="AG5" s="6"/>
     </row>
     <row r="6" spans="1:34" s="1" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="5"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="73"/>
-      <c r="N6" s="73"/>
-      <c r="O6" s="73"/>
-      <c r="P6" s="73"/>
-      <c r="Q6" s="73"/>
-      <c r="R6" s="73"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
       <c r="AG6" s="6"/>
     </row>
     <row r="7" spans="1:34" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="73"/>
-      <c r="N7" s="73"/>
-      <c r="O7" s="73"/>
-      <c r="P7" s="73"/>
-      <c r="Q7" s="73"/>
-      <c r="R7" s="73"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
       <c r="U7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="X7" s="25" t="s">
+      <c r="X7" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="Y7" s="25"/>
-      <c r="Z7" s="25"/>
-      <c r="AA7" s="25"/>
+      <c r="Y7" s="45"/>
+      <c r="Z7" s="45"/>
+      <c r="AA7" s="45"/>
       <c r="AG7" s="6"/>
     </row>
     <row r="8" spans="1:34" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="U8" s="74" t="s">
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="44"/>
+      <c r="U8" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="V8" s="74"/>
-      <c r="W8" s="74"/>
-      <c r="X8" s="44" t="s">
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
+      <c r="X8" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="Y8" s="44"/>
-      <c r="Z8" s="44"/>
-      <c r="AA8" s="44"/>
-      <c r="AB8" s="44"/>
-      <c r="AC8" s="44"/>
-      <c r="AD8" s="44"/>
-      <c r="AE8" s="44"/>
+      <c r="Y8" s="47"/>
+      <c r="Z8" s="47"/>
+      <c r="AA8" s="47"/>
+      <c r="AB8" s="47"/>
+      <c r="AC8" s="47"/>
+      <c r="AD8" s="47"/>
+      <c r="AE8" s="47"/>
       <c r="AG8" s="10"/>
     </row>
     <row r="9" spans="1:34" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
-      <c r="U9" s="74" t="s">
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="44"/>
+      <c r="U9" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="V9" s="74"/>
-      <c r="W9" s="74"/>
-      <c r="X9" s="45" t="s">
+      <c r="V9" s="24"/>
+      <c r="W9" s="24"/>
+      <c r="X9" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="Y9" s="45"/>
-      <c r="Z9" s="45"/>
-      <c r="AA9" s="45"/>
-      <c r="AB9" s="45"/>
-      <c r="AC9" s="45"/>
-      <c r="AD9" s="45"/>
-      <c r="AE9" s="45"/>
-      <c r="AF9" s="45"/>
-      <c r="AG9" s="45"/>
+      <c r="Y9" s="48"/>
+      <c r="Z9" s="48"/>
+      <c r="AA9" s="48"/>
+      <c r="AB9" s="48"/>
+      <c r="AC9" s="48"/>
+      <c r="AD9" s="48"/>
+      <c r="AE9" s="48"/>
+      <c r="AF9" s="48"/>
+      <c r="AG9" s="48"/>
     </row>
     <row r="10" spans="1:34" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="15"/>
       <c r="U10" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="X10" s="46" t="s">
+      <c r="X10" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="Y10" s="46"/>
-      <c r="Z10" s="46"/>
-      <c r="AA10" s="46"/>
-      <c r="AB10" s="46"/>
-      <c r="AC10" s="46"/>
-      <c r="AD10" s="46"/>
-      <c r="AE10" s="46"/>
-      <c r="AF10" s="46"/>
-      <c r="AG10" s="46"/>
+      <c r="Y10" s="37"/>
+      <c r="Z10" s="37"/>
+      <c r="AA10" s="37"/>
+      <c r="AB10" s="37"/>
+      <c r="AC10" s="37"/>
+      <c r="AD10" s="37"/>
+      <c r="AE10" s="37"/>
+      <c r="AF10" s="37"/>
+      <c r="AG10" s="37"/>
     </row>
     <row r="11" spans="1:34" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="U11" s="51" t="s">
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="44"/>
+      <c r="U11" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="V11" s="51"/>
-      <c r="W11" s="51"/>
-      <c r="X11" s="45" t="s">
+      <c r="V11" s="38"/>
+      <c r="W11" s="38"/>
+      <c r="X11" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="Y11" s="45"/>
-      <c r="Z11" s="45"/>
-      <c r="AA11" s="45"/>
-      <c r="AB11" s="45"/>
-      <c r="AC11" s="45"/>
-      <c r="AD11" s="45"/>
-      <c r="AE11" s="45"/>
-      <c r="AF11" s="45"/>
-      <c r="AG11" s="45"/>
+      <c r="Y11" s="48"/>
+      <c r="Z11" s="48"/>
+      <c r="AA11" s="48"/>
+      <c r="AB11" s="48"/>
+      <c r="AC11" s="48"/>
+      <c r="AD11" s="48"/>
+      <c r="AE11" s="48"/>
+      <c r="AF11" s="48"/>
+      <c r="AG11" s="48"/>
     </row>
     <row r="12" spans="1:34" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
-      <c r="U12" s="72" t="s">
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="44"/>
+      <c r="U12" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="V12" s="72"/>
-      <c r="W12" s="72"/>
-      <c r="X12" s="46" t="s">
+      <c r="V12" s="42"/>
+      <c r="W12" s="42"/>
+      <c r="X12" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="Y12" s="46"/>
-      <c r="Z12" s="46"/>
-      <c r="AA12" s="46"/>
-      <c r="AB12" s="46"/>
-      <c r="AC12" s="46"/>
-      <c r="AD12" s="46"/>
-      <c r="AE12" s="46"/>
-      <c r="AF12" s="46"/>
-      <c r="AG12" s="46"/>
+      <c r="Y12" s="37"/>
+      <c r="Z12" s="37"/>
+      <c r="AA12" s="37"/>
+      <c r="AB12" s="37"/>
+      <c r="AC12" s="37"/>
+      <c r="AD12" s="37"/>
+      <c r="AE12" s="37"/>
+      <c r="AF12" s="37"/>
+      <c r="AG12" s="37"/>
     </row>
     <row r="13" spans="1:34" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16"/>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="44"/>
+      <c r="R13" s="44"/>
       <c r="AG13" s="10"/>
     </row>
     <row r="14" spans="1:34" s="1" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1873,296 +1867,296 @@
     </row>
     <row r="15" spans="1:34" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16"/>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="42"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="50"/>
+      <c r="R15" s="51"/>
       <c r="S15" s="19"/>
       <c r="T15" s="17"/>
-      <c r="U15" s="38" t="s">
+      <c r="U15" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="V15" s="39"/>
-      <c r="W15" s="39"/>
-      <c r="X15" s="39"/>
-      <c r="Y15" s="39"/>
-      <c r="Z15" s="39"/>
-      <c r="AA15" s="39"/>
-      <c r="AB15" s="39"/>
-      <c r="AC15" s="39"/>
-      <c r="AD15" s="39"/>
-      <c r="AE15" s="39"/>
-      <c r="AF15" s="39"/>
-      <c r="AG15" s="40"/>
+      <c r="V15" s="50"/>
+      <c r="W15" s="50"/>
+      <c r="X15" s="50"/>
+      <c r="Y15" s="50"/>
+      <c r="Z15" s="50"/>
+      <c r="AA15" s="50"/>
+      <c r="AB15" s="50"/>
+      <c r="AC15" s="50"/>
+      <c r="AD15" s="50"/>
+      <c r="AE15" s="50"/>
+      <c r="AF15" s="50"/>
+      <c r="AG15" s="53"/>
     </row>
     <row r="16" spans="1:34" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16"/>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="28"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="76"/>
+      <c r="N16" s="76"/>
+      <c r="O16" s="76"/>
+      <c r="P16" s="76"/>
+      <c r="Q16" s="76"/>
+      <c r="R16" s="77"/>
       <c r="T16" s="17"/>
-      <c r="U16" s="32" t="s">
+      <c r="U16" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="V16" s="33"/>
-      <c r="W16" s="33"/>
-      <c r="X16" s="33"/>
-      <c r="Y16" s="33"/>
-      <c r="Z16" s="33"/>
-      <c r="AA16" s="33"/>
-      <c r="AB16" s="33"/>
-      <c r="AC16" s="33"/>
-      <c r="AD16" s="33"/>
-      <c r="AE16" s="33"/>
-      <c r="AF16" s="33"/>
-      <c r="AG16" s="34"/>
+      <c r="V16" s="82"/>
+      <c r="W16" s="82"/>
+      <c r="X16" s="82"/>
+      <c r="Y16" s="82"/>
+      <c r="Z16" s="82"/>
+      <c r="AA16" s="82"/>
+      <c r="AB16" s="82"/>
+      <c r="AC16" s="82"/>
+      <c r="AD16" s="82"/>
+      <c r="AE16" s="82"/>
+      <c r="AF16" s="82"/>
+      <c r="AG16" s="83"/>
       <c r="AH16" s="18"/>
     </row>
     <row r="17" spans="1:34" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="28"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="76"/>
+      <c r="L17" s="76"/>
+      <c r="M17" s="76"/>
+      <c r="N17" s="76"/>
+      <c r="O17" s="76"/>
+      <c r="P17" s="76"/>
+      <c r="Q17" s="76"/>
+      <c r="R17" s="77"/>
       <c r="T17" s="17"/>
-      <c r="U17" s="32"/>
-      <c r="V17" s="33"/>
-      <c r="W17" s="33"/>
-      <c r="X17" s="33"/>
-      <c r="Y17" s="33"/>
-      <c r="Z17" s="33"/>
-      <c r="AA17" s="33"/>
-      <c r="AB17" s="33"/>
-      <c r="AC17" s="33"/>
-      <c r="AD17" s="33"/>
-      <c r="AE17" s="33"/>
-      <c r="AF17" s="33"/>
-      <c r="AG17" s="34"/>
+      <c r="U17" s="81"/>
+      <c r="V17" s="82"/>
+      <c r="W17" s="82"/>
+      <c r="X17" s="82"/>
+      <c r="Y17" s="82"/>
+      <c r="Z17" s="82"/>
+      <c r="AA17" s="82"/>
+      <c r="AB17" s="82"/>
+      <c r="AC17" s="82"/>
+      <c r="AD17" s="82"/>
+      <c r="AE17" s="82"/>
+      <c r="AF17" s="82"/>
+      <c r="AG17" s="83"/>
       <c r="AH17" s="18"/>
     </row>
     <row r="18" spans="1:34" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="28"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="76"/>
+      <c r="L18" s="76"/>
+      <c r="M18" s="76"/>
+      <c r="N18" s="76"/>
+      <c r="O18" s="76"/>
+      <c r="P18" s="76"/>
+      <c r="Q18" s="76"/>
+      <c r="R18" s="77"/>
       <c r="T18" s="17"/>
-      <c r="U18" s="32"/>
-      <c r="V18" s="33"/>
-      <c r="W18" s="33"/>
-      <c r="X18" s="33"/>
-      <c r="Y18" s="33"/>
-      <c r="Z18" s="33"/>
-      <c r="AA18" s="33"/>
-      <c r="AB18" s="33"/>
-      <c r="AC18" s="33"/>
-      <c r="AD18" s="33"/>
-      <c r="AE18" s="33"/>
-      <c r="AF18" s="33"/>
-      <c r="AG18" s="34"/>
+      <c r="U18" s="81"/>
+      <c r="V18" s="82"/>
+      <c r="W18" s="82"/>
+      <c r="X18" s="82"/>
+      <c r="Y18" s="82"/>
+      <c r="Z18" s="82"/>
+      <c r="AA18" s="82"/>
+      <c r="AB18" s="82"/>
+      <c r="AC18" s="82"/>
+      <c r="AD18" s="82"/>
+      <c r="AE18" s="82"/>
+      <c r="AF18" s="82"/>
+      <c r="AG18" s="83"/>
     </row>
     <row r="19" spans="1:34" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="28"/>
+      <c r="B19" s="75"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="76"/>
+      <c r="K19" s="76"/>
+      <c r="L19" s="76"/>
+      <c r="M19" s="76"/>
+      <c r="N19" s="76"/>
+      <c r="O19" s="76"/>
+      <c r="P19" s="76"/>
+      <c r="Q19" s="76"/>
+      <c r="R19" s="77"/>
       <c r="T19" s="17"/>
-      <c r="U19" s="32"/>
-      <c r="V19" s="33"/>
-      <c r="W19" s="33"/>
-      <c r="X19" s="33"/>
-      <c r="Y19" s="33"/>
-      <c r="Z19" s="33"/>
-      <c r="AA19" s="33"/>
-      <c r="AB19" s="33"/>
-      <c r="AC19" s="33"/>
-      <c r="AD19" s="33"/>
-      <c r="AE19" s="33"/>
-      <c r="AF19" s="33"/>
-      <c r="AG19" s="34"/>
+      <c r="U19" s="81"/>
+      <c r="V19" s="82"/>
+      <c r="W19" s="82"/>
+      <c r="X19" s="82"/>
+      <c r="Y19" s="82"/>
+      <c r="Z19" s="82"/>
+      <c r="AA19" s="82"/>
+      <c r="AB19" s="82"/>
+      <c r="AC19" s="82"/>
+      <c r="AD19" s="82"/>
+      <c r="AE19" s="82"/>
+      <c r="AF19" s="82"/>
+      <c r="AG19" s="83"/>
     </row>
     <row r="20" spans="1:34" s="1" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="31"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="79"/>
+      <c r="K20" s="79"/>
+      <c r="L20" s="79"/>
+      <c r="M20" s="79"/>
+      <c r="N20" s="79"/>
+      <c r="O20" s="79"/>
+      <c r="P20" s="79"/>
+      <c r="Q20" s="79"/>
+      <c r="R20" s="80"/>
       <c r="T20" s="17"/>
-      <c r="U20" s="35"/>
-      <c r="V20" s="36"/>
-      <c r="W20" s="36"/>
-      <c r="X20" s="36"/>
-      <c r="Y20" s="36"/>
-      <c r="Z20" s="36"/>
-      <c r="AA20" s="36"/>
-      <c r="AB20" s="36"/>
-      <c r="AC20" s="36"/>
-      <c r="AD20" s="36"/>
-      <c r="AE20" s="36"/>
-      <c r="AF20" s="36"/>
-      <c r="AG20" s="37"/>
+      <c r="U20" s="84"/>
+      <c r="V20" s="85"/>
+      <c r="W20" s="85"/>
+      <c r="X20" s="85"/>
+      <c r="Y20" s="85"/>
+      <c r="Z20" s="85"/>
+      <c r="AA20" s="85"/>
+      <c r="AB20" s="85"/>
+      <c r="AC20" s="85"/>
+      <c r="AD20" s="85"/>
+      <c r="AE20" s="85"/>
+      <c r="AF20" s="85"/>
+      <c r="AG20" s="86"/>
     </row>
     <row r="21" spans="1:34" s="1" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="57" t="s">
+      <c r="B21" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="59" t="s">
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
-      <c r="N21" s="59"/>
-      <c r="O21" s="59"/>
-      <c r="P21" s="59"/>
-      <c r="Q21" s="59"/>
-      <c r="R21" s="59"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="72"/>
+      <c r="K21" s="72"/>
+      <c r="L21" s="72"/>
+      <c r="M21" s="72"/>
+      <c r="N21" s="72"/>
+      <c r="O21" s="72"/>
+      <c r="P21" s="72"/>
+      <c r="Q21" s="72"/>
+      <c r="R21" s="72"/>
       <c r="T21" s="9"/>
-      <c r="U21" s="60" t="s">
+      <c r="U21" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="V21" s="60"/>
-      <c r="W21" s="60"/>
-      <c r="X21" s="60"/>
-      <c r="Y21" s="60"/>
-      <c r="Z21" s="60"/>
-      <c r="AA21" s="60"/>
-      <c r="AB21" s="60"/>
-      <c r="AC21" s="60"/>
-      <c r="AD21" s="60"/>
-      <c r="AE21" s="60"/>
-      <c r="AF21" s="60"/>
-      <c r="AG21" s="60"/>
+      <c r="V21" s="71"/>
+      <c r="W21" s="71"/>
+      <c r="X21" s="71"/>
+      <c r="Y21" s="71"/>
+      <c r="Z21" s="71"/>
+      <c r="AA21" s="71"/>
+      <c r="AB21" s="71"/>
+      <c r="AC21" s="71"/>
+      <c r="AD21" s="71"/>
+      <c r="AE21" s="71"/>
+      <c r="AF21" s="71"/>
+      <c r="AG21" s="71"/>
     </row>
     <row r="22" spans="1:34" s="1" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="61" t="s">
+      <c r="B22" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="62" t="s">
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="I22" s="62"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="62"/>
-      <c r="L22" s="62"/>
-      <c r="M22" s="62"/>
-      <c r="N22" s="62"/>
-      <c r="O22" s="62"/>
-      <c r="P22" s="62"/>
-      <c r="Q22" s="62"/>
-      <c r="R22" s="62"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
       <c r="T22" s="9"/>
-      <c r="U22" s="63" t="s">
+      <c r="U22" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="V22" s="63"/>
-      <c r="W22" s="63"/>
-      <c r="X22" s="63"/>
-      <c r="Y22" s="63"/>
-      <c r="Z22" s="63"/>
-      <c r="AA22" s="63"/>
-      <c r="AB22" s="63"/>
-      <c r="AC22" s="63"/>
-      <c r="AD22" s="63"/>
-      <c r="AE22" s="63"/>
-      <c r="AF22" s="63"/>
-      <c r="AG22" s="63"/>
+      <c r="V22" s="41"/>
+      <c r="W22" s="41"/>
+      <c r="X22" s="41"/>
+      <c r="Y22" s="41"/>
+      <c r="Z22" s="41"/>
+      <c r="AA22" s="41"/>
+      <c r="AB22" s="41"/>
+      <c r="AC22" s="41"/>
+      <c r="AD22" s="41"/>
+      <c r="AE22" s="41"/>
+      <c r="AF22" s="41"/>
+      <c r="AG22" s="41"/>
     </row>
     <row r="23" spans="1:34" s="1" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="22"/>
@@ -2184,207 +2178,207 @@
       <c r="R23" s="21"/>
       <c r="S23" s="20"/>
       <c r="T23" s="20"/>
-      <c r="U23" s="86"/>
-      <c r="V23" s="86"/>
-      <c r="W23" s="86"/>
-      <c r="X23" s="86"/>
-      <c r="Y23" s="86"/>
-      <c r="Z23" s="86"/>
-      <c r="AA23" s="86"/>
-      <c r="AB23" s="86"/>
-      <c r="AC23" s="86"/>
-      <c r="AD23" s="86"/>
-      <c r="AE23" s="86"/>
-      <c r="AF23" s="86"/>
-      <c r="AG23" s="86"/>
+      <c r="U23" s="36"/>
+      <c r="V23" s="36"/>
+      <c r="W23" s="36"/>
+      <c r="X23" s="36"/>
+      <c r="Y23" s="36"/>
+      <c r="Z23" s="36"/>
+      <c r="AA23" s="36"/>
+      <c r="AB23" s="36"/>
+      <c r="AC23" s="36"/>
+      <c r="AD23" s="36"/>
+      <c r="AE23" s="36"/>
+      <c r="AF23" s="36"/>
+      <c r="AG23" s="36"/>
     </row>
     <row r="24" spans="1:34" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16"/>
-      <c r="B24" s="47" t="s">
+      <c r="B24" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="48"/>
-      <c r="D24" s="64" t="s">
+      <c r="C24" s="55"/>
+      <c r="D24" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="69" t="s">
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="65"/>
-      <c r="N24" s="65"/>
-      <c r="O24" s="65"/>
-      <c r="P24" s="65"/>
-      <c r="Q24" s="65"/>
-      <c r="R24" s="65"/>
-      <c r="S24" s="65"/>
-      <c r="T24" s="66"/>
-      <c r="U24" s="69" t="s">
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="59"/>
+      <c r="O24" s="59"/>
+      <c r="P24" s="59"/>
+      <c r="Q24" s="59"/>
+      <c r="R24" s="59"/>
+      <c r="S24" s="59"/>
+      <c r="T24" s="60"/>
+      <c r="U24" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="V24" s="65"/>
-      <c r="W24" s="66"/>
-      <c r="X24" s="69" t="s">
+      <c r="V24" s="59"/>
+      <c r="W24" s="60"/>
+      <c r="X24" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="Y24" s="66"/>
-      <c r="Z24" s="70" t="s">
+      <c r="Y24" s="60"/>
+      <c r="Z24" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="AA24" s="64"/>
-      <c r="AB24" s="64"/>
-      <c r="AC24" s="71"/>
-      <c r="AD24" s="52" t="s">
+      <c r="AA24" s="58"/>
+      <c r="AB24" s="58"/>
+      <c r="AC24" s="67"/>
+      <c r="AD24" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="AE24" s="53"/>
-      <c r="AF24" s="53"/>
-      <c r="AG24" s="53"/>
+      <c r="AE24" s="69"/>
+      <c r="AF24" s="69"/>
+      <c r="AG24" s="69"/>
     </row>
     <row r="25" spans="1:34" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="55"/>
-      <c r="N25" s="55"/>
-      <c r="O25" s="55"/>
-      <c r="P25" s="55"/>
-      <c r="Q25" s="55"/>
-      <c r="R25" s="55"/>
-      <c r="S25" s="55"/>
-      <c r="T25" s="68"/>
-      <c r="U25" s="54"/>
-      <c r="V25" s="55"/>
-      <c r="W25" s="68"/>
-      <c r="X25" s="54"/>
-      <c r="Y25" s="68"/>
-      <c r="Z25" s="54"/>
-      <c r="AA25" s="55"/>
-      <c r="AB25" s="55"/>
-      <c r="AC25" s="68"/>
-      <c r="AD25" s="54"/>
-      <c r="AE25" s="55"/>
-      <c r="AF25" s="55"/>
-      <c r="AG25" s="56"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="62"/>
+      <c r="M25" s="62"/>
+      <c r="N25" s="62"/>
+      <c r="O25" s="62"/>
+      <c r="P25" s="62"/>
+      <c r="Q25" s="62"/>
+      <c r="R25" s="62"/>
+      <c r="S25" s="62"/>
+      <c r="T25" s="63"/>
+      <c r="U25" s="65"/>
+      <c r="V25" s="62"/>
+      <c r="W25" s="63"/>
+      <c r="X25" s="65"/>
+      <c r="Y25" s="63"/>
+      <c r="Z25" s="65"/>
+      <c r="AA25" s="62"/>
+      <c r="AB25" s="62"/>
+      <c r="AC25" s="63"/>
+      <c r="AD25" s="65"/>
+      <c r="AE25" s="62"/>
+      <c r="AF25" s="62"/>
+      <c r="AG25" s="70"/>
     </row>
     <row r="26" spans="1:34" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="82" t="s">
+      <c r="B26" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="82"/>
-      <c r="D26" s="83" t="s">
+      <c r="C26" s="32"/>
+      <c r="D26" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="E26" s="83"/>
-      <c r="F26" s="83"/>
-      <c r="G26" s="83"/>
-      <c r="H26" s="84" t="s">
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="I26" s="84"/>
-      <c r="J26" s="84"/>
-      <c r="K26" s="84"/>
-      <c r="L26" s="84"/>
-      <c r="M26" s="84"/>
-      <c r="N26" s="84"/>
-      <c r="O26" s="84"/>
-      <c r="P26" s="84"/>
-      <c r="Q26" s="84"/>
-      <c r="R26" s="84"/>
-      <c r="S26" s="84"/>
-      <c r="T26" s="84"/>
-      <c r="U26" s="85" t="s">
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="34"/>
+      <c r="R26" s="34"/>
+      <c r="S26" s="34"/>
+      <c r="T26" s="34"/>
+      <c r="U26" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="V26" s="85"/>
-      <c r="W26" s="85"/>
-      <c r="X26" s="85" t="s">
+      <c r="V26" s="35"/>
+      <c r="W26" s="35"/>
+      <c r="X26" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="Y26" s="85"/>
-      <c r="Z26" s="80" t="s">
+      <c r="Y26" s="35"/>
+      <c r="Z26" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="AA26" s="80"/>
-      <c r="AB26" s="80"/>
-      <c r="AC26" s="80"/>
-      <c r="AD26" s="81" t="s">
+      <c r="AA26" s="30"/>
+      <c r="AB26" s="30"/>
+      <c r="AC26" s="30"/>
+      <c r="AD26" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="AE26" s="81"/>
-      <c r="AF26" s="81"/>
-      <c r="AG26" s="81"/>
+      <c r="AE26" s="31"/>
+      <c r="AF26" s="31"/>
+      <c r="AG26" s="31"/>
     </row>
     <row r="27" spans="1:34" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="77" t="s">
+      <c r="B27" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="77"/>
-      <c r="D27" s="77"/>
-      <c r="E27" s="77"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="77"/>
-      <c r="I27" s="77"/>
-      <c r="J27" s="77"/>
-      <c r="K27" s="77"/>
-      <c r="L27" s="77"/>
-      <c r="M27" s="77"/>
-      <c r="N27" s="77"/>
-      <c r="O27" s="77"/>
-      <c r="P27" s="77"/>
-      <c r="Q27" s="77"/>
-      <c r="R27" s="77"/>
-      <c r="S27" s="77"/>
-      <c r="T27" s="77"/>
-      <c r="U27" s="77"/>
-      <c r="V27" s="77"/>
-      <c r="W27" s="77"/>
-      <c r="X27" s="77"/>
-      <c r="Y27" s="77"/>
-      <c r="Z27" s="77"/>
-      <c r="AA27" s="77"/>
-      <c r="AB27" s="77"/>
-      <c r="AC27" s="77"/>
-      <c r="AD27" s="77"/>
-      <c r="AE27" s="77"/>
-      <c r="AF27" s="77"/>
-      <c r="AG27" s="77"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="27"/>
+      <c r="U27" s="27"/>
+      <c r="V27" s="27"/>
+      <c r="W27" s="27"/>
+      <c r="X27" s="27"/>
+      <c r="Y27" s="27"/>
+      <c r="Z27" s="27"/>
+      <c r="AA27" s="27"/>
+      <c r="AB27" s="27"/>
+      <c r="AC27" s="27"/>
+      <c r="AD27" s="27"/>
+      <c r="AE27" s="27"/>
+      <c r="AF27" s="27"/>
+      <c r="AG27" s="27"/>
     </row>
     <row r="28" spans="1:34" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
-      <c r="U28" s="78" t="s">
+      <c r="U28" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="V28" s="78"/>
-      <c r="W28" s="78"/>
-      <c r="X28" s="78"/>
-      <c r="Y28" s="78"/>
-      <c r="Z28" s="78"/>
-      <c r="AA28" s="78"/>
-      <c r="AB28" s="79" t="s">
+      <c r="V28" s="28"/>
+      <c r="W28" s="28"/>
+      <c r="X28" s="28"/>
+      <c r="Y28" s="28"/>
+      <c r="Z28" s="28"/>
+      <c r="AA28" s="28"/>
+      <c r="AB28" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="AC28" s="79"/>
-      <c r="AD28" s="79"/>
-      <c r="AE28" s="79"/>
-      <c r="AF28" s="79"/>
-      <c r="AG28" s="79"/>
+      <c r="AC28" s="29"/>
+      <c r="AD28" s="29"/>
+      <c r="AE28" s="29"/>
+      <c r="AF28" s="29"/>
+      <c r="AG28" s="29"/>
     </row>
     <row r="29" spans="1:34" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
@@ -2404,15 +2398,15 @@
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
-      <c r="H31" s="23" t="s">
+      <c r="H31" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="23"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="43"/>
+      <c r="M31" s="43"/>
+      <c r="N31" s="43"/>
       <c r="O31" s="12"/>
       <c r="P31" s="12"/>
       <c r="Q31" s="12"/>
@@ -2431,43 +2425,74 @@
       <c r="AG31" s="13"/>
     </row>
     <row r="32" spans="1:34" s="14" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="76" t="s">
+      <c r="B32" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="76"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="76"/>
-      <c r="F32" s="76"/>
-      <c r="G32" s="76"/>
-      <c r="H32" s="76"/>
-      <c r="I32" s="76"/>
-      <c r="J32" s="76"/>
-      <c r="K32" s="76"/>
-      <c r="L32" s="76"/>
-      <c r="M32" s="76"/>
-      <c r="N32" s="76"/>
-      <c r="O32" s="76"/>
-      <c r="P32" s="76"/>
-      <c r="Q32" s="76"/>
-      <c r="R32" s="76"/>
-      <c r="S32" s="76"/>
-      <c r="T32" s="76"/>
-      <c r="U32" s="76"/>
-      <c r="V32" s="76"/>
-      <c r="W32" s="76"/>
-      <c r="X32" s="76"/>
-      <c r="Y32" s="76"/>
-      <c r="Z32" s="76"/>
-      <c r="AA32" s="76"/>
-      <c r="AB32" s="76"/>
-      <c r="AC32" s="76"/>
-      <c r="AD32" s="76"/>
-      <c r="AE32" s="76"/>
-      <c r="AF32" s="76"/>
-      <c r="AG32" s="76"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="26"/>
+      <c r="S32" s="26"/>
+      <c r="T32" s="26"/>
+      <c r="U32" s="26"/>
+      <c r="V32" s="26"/>
+      <c r="W32" s="26"/>
+      <c r="X32" s="26"/>
+      <c r="Y32" s="26"/>
+      <c r="Z32" s="26"/>
+      <c r="AA32" s="26"/>
+      <c r="AB32" s="26"/>
+      <c r="AC32" s="26"/>
+      <c r="AD32" s="26"/>
+      <c r="AE32" s="26"/>
+      <c r="AF32" s="26"/>
+      <c r="AG32" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="H31:N31"/>
+    <mergeCell ref="B12:R12"/>
+    <mergeCell ref="B13:R13"/>
+    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="B16:R20"/>
+    <mergeCell ref="U16:AG20"/>
+    <mergeCell ref="U15:AG15"/>
+    <mergeCell ref="B15:R15"/>
+    <mergeCell ref="B9:R9"/>
+    <mergeCell ref="B8:R8"/>
+    <mergeCell ref="B11:R11"/>
+    <mergeCell ref="X8:AE8"/>
+    <mergeCell ref="X9:AG9"/>
+    <mergeCell ref="X10:AG10"/>
+    <mergeCell ref="X11:AG11"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="X12:AG12"/>
+    <mergeCell ref="U11:W11"/>
+    <mergeCell ref="AD24:AG25"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="H21:R21"/>
+    <mergeCell ref="U21:AG21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="H22:R22"/>
+    <mergeCell ref="U22:AG22"/>
+    <mergeCell ref="D24:G25"/>
+    <mergeCell ref="H24:T25"/>
+    <mergeCell ref="U24:W25"/>
+    <mergeCell ref="X24:Y25"/>
+    <mergeCell ref="Z24:AC25"/>
+    <mergeCell ref="U12:W12"/>
     <mergeCell ref="C3:R7"/>
     <mergeCell ref="U8:W8"/>
     <mergeCell ref="U5:AB5"/>
@@ -2484,37 +2509,6 @@
     <mergeCell ref="U26:W26"/>
     <mergeCell ref="X26:Y26"/>
     <mergeCell ref="U23:AG23"/>
-    <mergeCell ref="X12:AG12"/>
-    <mergeCell ref="U11:W11"/>
-    <mergeCell ref="AD24:AG25"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="H21:R21"/>
-    <mergeCell ref="U21:AG21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="H22:R22"/>
-    <mergeCell ref="U22:AG22"/>
-    <mergeCell ref="D24:G25"/>
-    <mergeCell ref="H24:T25"/>
-    <mergeCell ref="U24:W25"/>
-    <mergeCell ref="X24:Y25"/>
-    <mergeCell ref="Z24:AC25"/>
-    <mergeCell ref="U12:W12"/>
-    <mergeCell ref="H31:N31"/>
-    <mergeCell ref="B12:R12"/>
-    <mergeCell ref="B13:R13"/>
-    <mergeCell ref="X7:AA7"/>
-    <mergeCell ref="B16:R20"/>
-    <mergeCell ref="U16:AG20"/>
-    <mergeCell ref="U15:AG15"/>
-    <mergeCell ref="B15:R15"/>
-    <mergeCell ref="B9:R9"/>
-    <mergeCell ref="B8:R8"/>
-    <mergeCell ref="B11:R11"/>
-    <mergeCell ref="X8:AE8"/>
-    <mergeCell ref="X9:AG9"/>
-    <mergeCell ref="X10:AG10"/>
-    <mergeCell ref="X11:AG11"/>
-    <mergeCell ref="B24:C25"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
